--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,8 +10,9 @@
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
     <sheet name="Batterien" sheetId="4" r:id="rId2"/>
     <sheet name="Motoren" sheetId="2" r:id="rId3"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Preis</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Weblink</t>
   </si>
   <si>
-    <t>Beispielmotor</t>
-  </si>
-  <si>
     <t>Stromverbrauch (W)</t>
   </si>
   <si>
@@ -90,19 +88,99 @@
   </si>
   <si>
     <t>Drohne</t>
+  </si>
+  <si>
+    <t>BR2205 2300KV</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/LHI-MT2204%E2%85%A1-Brushless-Quadcopter-Multicopter/dp/B01E3OT7NE/ref=sr_1_fkmr0_1?ie=UTF8&amp;qid=1506604706&amp;sr=8-1-fkmr0&amp;keywords=BR2205+2300KV+Brushless+Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4pcs BR1103 10000KV </t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/FancyWhoop-10000KV-Brushless-Multirotor-Quadcopter/dp/B071LHGZ22/ref=sr_1_8?ie=UTF8&amp;qid=1506604715&amp;sr=8-8&amp;keywords=brushless+motor+quadcopter</t>
+  </si>
+  <si>
+    <t>Kapazität(Ah)</t>
+  </si>
+  <si>
+    <t>Spannung (V)</t>
+  </si>
+  <si>
+    <t>Syma X5 SW</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Lipo-Akku-1s-3-7V-1200mAh-25C-fur-Syma-X5-SW-FPV-Ufo-Drohne-Quadrocopter-/162074331685?hash=item25bc620a25:g:VQcAAOSw0IJZxioh</t>
+  </si>
+  <si>
+    <t>Intruder</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Lipo-Akku-7-4V-2000mAh-Batterie-RC-Quadrocopter-UFO-Intruder-/161957407132?hash=item25b569e99c:g:T0MAAOSwrlRZxins</t>
+  </si>
+  <si>
+    <t>TRX Traxxas</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/11-1V-5500mAh-3S-35C-LiPo-Akku-Batterie-TRX-Traxxas-fur-RC-Auto-Drone-Flugzeug-/182764250653?hash=item2a8d99261d:g:AoYAAOSwpCpZuj0O</t>
+  </si>
+  <si>
+    <t>XT60</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/2x-1500mAh-11-1V-3S-35C-LiPo-Akku-Batterie-XT60-fur-RC-Auto-Quadcopter-Flugzeug-/182789553149?hash=item2a8f1b3bfd:g:DqEAAOSwFuxZyOuw</t>
+  </si>
+  <si>
+    <t>30C LiPo</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/5000mAh-2S-7-4V-30C-LiPo-RC-Akku-Batterie-Deans-fur-Auto-Hubschrauber-Flugzeug-/142422438668?hash=item212909f30c:g:ww8AAOSwOMdZS4Do</t>
+  </si>
+  <si>
+    <t>Raspi Zero W</t>
+  </si>
+  <si>
+    <t>Kapazität(GB)</t>
+  </si>
+  <si>
+    <t>San Disk Ultra</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/SD-Speicherkarte-San-Disk-Ultra-32-GB-micro-SDHC-UHS-mit-Adapter-NEU-OVP/272800832329?_trkparms=aid%3D555018%26algo%3DPL.SIM%26ao%3D2%26asc%3D46153%26meid%3Dabe2b08fe3bc469681daa0de2d3e19e9%26pid%3D100005%26rk%3D3%26rkt%3D6%26sd%3D331727333342&amp;_trksid=p2047675.c100005.m1851</t>
+  </si>
+  <si>
+    <t>Sd-Karte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,16 +203,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -227,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,26 +518,26 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D38)</f>
-        <v>4</v>
+        <f>SUM(D4:D39)</f>
+        <v>86.5</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:G1" si="0">SUM(E4:E38)</f>
-        <v>40</v>
+        <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
+        <v>641</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,19 +572,19 @@
       </c>
       <c r="C4" t="str">
         <f>Motoren!B2</f>
-        <v>Beispielmotor</v>
+        <v>BR2205 2300KV</v>
       </c>
       <c r="D4" s="1">
         <f>Motoren!C2*B4</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <f>Motoren!D2*B4</f>
-        <v>40</v>
+        <v>640</v>
       </c>
       <c r="F4">
         <f>Motoren!E2*Drohne!B4</f>
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -504,39 +592,78 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="str">
+        <f>Batterien!B2</f>
+        <v>Syma X5 SW</v>
+      </c>
+      <c r="D5">
+        <f>Batterien!C2</f>
+        <v>9.5</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Batterien!E2</f>
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <f>Batterien!D2</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="str">
+        <f>'SD-Karte'!B2</f>
+        <v>San Disk Ultra</v>
+      </c>
+      <c r="D7">
+        <f>'SD-Karte'!D2</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -544,6 +671,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -554,22 +689,344 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>425</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>130</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>290</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -589,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -612,16 +1069,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -644,8 +1104,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5.4</v>
+      </c>
+      <c r="E4">
+        <v>21.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId2"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId3"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId4"/>
+    <sheet name="ESC" sheetId="6" r:id="rId2"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId3"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId4"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Preis</t>
   </si>
@@ -33,21 +34,12 @@
     <t>Motor</t>
   </si>
   <si>
-    <t>Gehäuse</t>
-  </si>
-  <si>
     <t>Batterie</t>
   </si>
   <si>
     <t>Control-Board</t>
   </si>
   <si>
-    <t>Sensor1</t>
-  </si>
-  <si>
-    <t>Sensor2</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -151,16 +143,43 @@
   </si>
   <si>
     <t>Sd-Karte</t>
+  </si>
+  <si>
+    <t>Rahmen</t>
+  </si>
+  <si>
+    <t>Propeller</t>
+  </si>
+  <si>
+    <t>Sensorenpacket</t>
+  </si>
+  <si>
+    <t>Ultraschallsensor</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Motorregler/ ESC</t>
+  </si>
+  <si>
+    <t>Stärke (A)</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/xm20a-mini-esc.html</t>
+  </si>
+  <si>
+    <t>DYS XM20A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -215,12 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -492,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,14 +537,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>86.5</v>
+        <v>130.75</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -533,11 +552,11 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>451</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -545,22 +564,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,7 +593,7 @@
         <f>Motoren!B2</f>
         <v>BR2205 2300KV</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <f>Motoren!C2*B4</f>
         <v>36</v>
       </c>
@@ -592,42 +611,49 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="str">
         <f>Batterien!B2</f>
-        <v>Syma X5 SW</v>
-      </c>
-      <c r="D5">
+        <v>Intruder</v>
+      </c>
+      <c r="D5" s="6">
         <f>Batterien!C2</f>
-        <v>9.5</v>
+        <v>13.75</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>Batterien!E2</f>
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2">
         <f>Batterien!D2</f>
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -636,22 +662,28 @@
         <f>'SD-Karte'!B2</f>
         <v>San Disk Ultra</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f>'SD-Karte'!D2</f>
         <v>15</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6">
         <v>26</v>
       </c>
       <c r="E8">
@@ -663,24 +695,113 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <f>ESC!B2</f>
+        <v>DYS XM20A</v>
+      </c>
+      <c r="D9" s="6">
+        <f>ESC!C2*B9</f>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>ESC!D2*Drohne!B9</f>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,10 +810,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,70 +891,79 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>90</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="4">
         <v>30</v>
@@ -782,12 +978,15 @@
         <v>11.1</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>12</v>
@@ -802,12 +1001,15 @@
         <v>11.1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>22.5</v>
@@ -822,7 +1024,7 @@
         <v>7.4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,8 +1214,11 @@
       <c r="C43" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H11">
+    <sortCondition descending="1" ref="A2:A11"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H5" r:id="rId2"/>
     <hyperlink ref="H6" r:id="rId3"/>
   </hyperlinks>
@@ -1021,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -1037,31 +1242,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>9</v>
@@ -1081,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -1109,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
@@ -1121,7 +1326,7 @@
         <v>21.4</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1146,24 +1351,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1172,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -8,10 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="ESC" sheetId="6" r:id="rId2"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId3"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId4"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId5"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId2"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId3"/>
+    <sheet name="ESC" sheetId="6" r:id="rId4"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Preis</t>
   </si>
@@ -154,9 +156,6 @@
     <t>Sensorenpacket</t>
   </si>
   <si>
-    <t>Ultraschallsensor</t>
-  </si>
-  <si>
     <t>Kamera</t>
   </si>
   <si>
@@ -170,14 +169,39 @@
   </si>
   <si>
     <t>DYS XM20A</t>
+  </si>
+  <si>
+    <t>Pipser</t>
+  </si>
+  <si>
+    <t>Höhensensor</t>
+  </si>
+  <si>
+    <t>MPL3115A2</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/SparkFun-Altitude-Pressure-Sensor-Breakout-MPL3115A2-SEN-11084-/282153221726?_trksid=p2385738.m2548.l4275</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU9255 </t>
+  </si>
+  <si>
+    <t>Acc, Gyro, Comp</t>
+  </si>
+  <si>
+    <t>http://www.watterott.com/de/9-DOF-IMU-Module-With-MPU-9250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -227,7 +251,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,6 +261,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -299,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -334,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -522,7 +548,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +570,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>130.75</v>
+        <v>157.05000000000001</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -552,7 +578,7 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>432.2</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
@@ -695,7 +721,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -713,7 +739,7 @@
       </c>
       <c r="F9">
         <f>ESC!D2*Drohne!B9</f>
-        <v>48</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,21 +755,58 @@
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Sensoren!B2</f>
+        <v xml:space="preserve">MPU9255 </v>
+      </c>
+      <c r="D11" s="8">
+        <f>Sensoren!C2</f>
+        <v>9.5</v>
+      </c>
+      <c r="F11">
+        <f>Sensoren!D2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Höhe!B2</f>
+        <v>MPL3115A2</v>
+      </c>
+      <c r="D12" s="8">
+        <f>Höhe!C2</f>
+        <v>16.8</v>
+      </c>
+      <c r="F12">
+        <f>Höhe!D2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,10 +873,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -849,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +1120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -1226,7 +1472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -1335,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId2"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId3"/>
-    <sheet name="ESC" sheetId="6" r:id="rId4"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId7"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId2"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId3"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId4"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId5"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId6"/>
+    <sheet name="ESC" sheetId="6" r:id="rId7"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Preis</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Kaufen</t>
   </si>
   <si>
-    <t>Motor2</t>
-  </si>
-  <si>
     <t>Drohne</t>
   </si>
   <si>
@@ -193,6 +191,39 @@
   </si>
   <si>
     <t>http://www.watterott.com/de/9-DOF-IMU-Module-With-MPU-9250</t>
+  </si>
+  <si>
+    <t>Masione</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Masione-16000mAh-6S1P-22-2V-25C-Lipo-Battery-DJI-S900-S1000-DE-/322357046829?clk_rvr_id=1328745314494&amp;rmvSB=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDI INR18650-25R </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hwhqn4BmC2I</t>
+  </si>
+  <si>
+    <t>RaspCam</t>
+  </si>
+  <si>
+    <t>Auflösung (MP)</t>
+  </si>
+  <si>
+    <t>1080p</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.de/de/hd-weitwinkel-kameramodul-raspberry-pi-pi-2b-raspberry-pi-rpi-wwcam/p/30037327?channel=b2c&amp;price_gs=39.9007&amp;wt_mc=de.cse.gshop.de.-&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSEUCnkaAt0AEALw_wcB</t>
+  </si>
+  <si>
+    <t>Akku</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Ladeschaltkreis</t>
   </si>
 </sst>
 </file>
@@ -545,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,31 +592,39 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>157.05000000000001</v>
+        <v>239.3</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
-        <v>641</v>
+        <v>641.5</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>432.2</v>
+        <v>692.2</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -607,8 +646,14 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>650</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -634,8 +679,15 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>J2/J3*60</f>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -644,32 +696,34 @@
       </c>
       <c r="C5" t="str">
         <f>Batterien!B2</f>
-        <v>Intruder</v>
+        <v xml:space="preserve">SDI INR18650-25R </v>
       </c>
       <c r="D5" s="6">
         <f>Batterien!C2</f>
-        <v>13.75</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>Batterien!E2</f>
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2">
         <f>Batterien!D2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -677,9 +731,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -699,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -707,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6">
         <v>26</v>
@@ -719,9 +773,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -742,18 +796,20 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -771,9 +827,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -791,28 +847,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>Kamera!B2</f>
+        <v>RaspCam</v>
+      </c>
+      <c r="D13" s="8">
+        <f>Kamera!C2</f>
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <f>Kamera!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <f>Kamera!D2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -873,10 +949,560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>130</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>425</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>290</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H11">
+    <sortCondition descending="1" ref="A2:A11"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H2" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5.4</v>
+      </c>
+      <c r="E3">
+        <v>21.4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -910,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8">
         <v>9.5</v>
@@ -919,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1034,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7">
         <v>16.8</v>
@@ -1043,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1081,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1095,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1107,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1120,468 +1746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>425</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>290</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:H11">
-    <sortCondition descending="1" ref="A2:A11"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>160</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>5.4</v>
-      </c>
-      <c r="E4">
-        <v>21.4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1603,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1614,7 +1779,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1623,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Preis</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Ladeschaltkreis</t>
+  </si>
+  <si>
+    <t>https://electronics.stackexchange.com/questions/149093/do-i-need-a-balance-charger-if-i-use-a-protection-circuit-module-for-li-ion-batt</t>
+  </si>
+  <si>
+    <t>Ballance charger</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,6 +300,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -578,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1018,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2"/>
+    <hyperlink ref="H2" display="https://www.distrelec.de/de/hd-weitwinkel-kameramodul-raspberry-pi-pi-2b-raspberry-pi-rpi-wwcam/p/30037327?channel=b2c&amp;price_gs=39.9007&amp;wt_mc=de.cse.gshop.de.-&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahX"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1021,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,97 +1269,102 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1399,6 +1411,7 @@
     <hyperlink ref="H4" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
     <hyperlink ref="H2" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Preis</t>
   </si>
@@ -193,12 +193,6 @@
     <t>http://www.watterott.com/de/9-DOF-IMU-Module-With-MPU-9250</t>
   </si>
   <si>
-    <t>Masione</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/Masione-16000mAh-6S1P-22-2V-25C-Lipo-Battery-DJI-S900-S1000-DE-/322357046829?clk_rvr_id=1328745314494&amp;rmvSB=true</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDI INR18650-25R </t>
   </si>
   <si>
@@ -217,12 +211,6 @@
     <t>https://www.distrelec.de/de/hd-weitwinkel-kameramodul-raspberry-pi-pi-2b-raspberry-pi-rpi-wwcam/p/30037327?channel=b2c&amp;price_gs=39.9007&amp;wt_mc=de.cse.gshop.de.-&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSEUCnkaAt0AEALw_wcB</t>
   </si>
   <si>
-    <t>Akku</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>Ladeschaltkreis</t>
   </si>
   <si>
@@ -230,6 +218,18 @@
   </si>
   <si>
     <t>Ballance charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erwartete Flugdauer: </t>
+  </si>
+  <si>
+    <t>Minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE1806 </t>
+  </si>
+  <si>
+    <t>https://www.freakware.de/p/dys-be1806-bl-motor-2300kv-dys-be1806-a133842.htm?wgruppe=16697</t>
   </si>
 </sst>
 </file>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -608,30 +608,22 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>239.3</v>
+        <v>283.3</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
-        <v>641.5</v>
+        <v>361.5</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>692.2</v>
+        <v>684.2</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -653,14 +645,18 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>650</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <f>((G1*11.1)/E1)*60</f>
+        <v>9.2116182572614118</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -669,32 +665,25 @@
       </c>
       <c r="C4" t="str">
         <f>Motoren!B2</f>
-        <v>BR2205 2300KV</v>
+        <v xml:space="preserve">BE1806 </v>
       </c>
       <c r="D4" s="6">
         <f>Motoren!C2*B4</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <f>Motoren!D2*B4</f>
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="F4">
         <f>Motoren!E2*Drohne!B4</f>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <f>J2/J3*60</f>
-        <v>4.6153846153846159</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -721,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -738,7 +727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -760,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -780,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -803,7 +792,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -814,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -834,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -854,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -878,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -887,15 +876,15 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -981,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
         <v>51</v>
@@ -995,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -1010,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1026,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4">
         <v>36</v>
@@ -1082,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,25 +1190,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4">
-        <v>150</v>
-      </c>
-      <c r="D8" s="2">
-        <v>16</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>22.2</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
@@ -1264,107 +1238,104 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1396,9 +1367,6 @@
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:H11">
@@ -1409,9 +1377,8 @@
     <hyperlink ref="H3" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H2" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1419,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,48 +1432,72 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5.4</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>21.4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I4">
+    <sortCondition descending="1" ref="A2:A4"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>Preis</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Gewicht (g)</t>
   </si>
   <si>
-    <t>Effizienz (%)</t>
-  </si>
-  <si>
-    <t>Leistung (W)</t>
-  </si>
-  <si>
     <t>Kaufen</t>
   </si>
   <si>
@@ -100,18 +94,6 @@
     <t>Spannung (V)</t>
   </si>
   <si>
-    <t>Syma X5 SW</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/Lipo-Akku-1s-3-7V-1200mAh-25C-fur-Syma-X5-SW-FPV-Ufo-Drohne-Quadrocopter-/162074331685?hash=item25bc620a25:g:VQcAAOSw0IJZxioh</t>
-  </si>
-  <si>
-    <t>Intruder</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/Lipo-Akku-7-4V-2000mAh-Batterie-RC-Quadrocopter-UFO-Intruder-/161957407132?hash=item25b569e99c:g:T0MAAOSwrlRZxins</t>
-  </si>
-  <si>
     <t>TRX Traxxas</t>
   </si>
   <si>
@@ -124,12 +106,6 @@
     <t>http://www.ebay.de/itm/2x-1500mAh-11-1V-3S-35C-LiPo-Akku-Batterie-XT60-fur-RC-Auto-Quadcopter-Flugzeug-/182789553149?hash=item2a8f1b3bfd:g:DqEAAOSwFuxZyOuw</t>
   </si>
   <si>
-    <t>30C LiPo</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/5000mAh-2S-7-4V-30C-LiPo-RC-Akku-Batterie-Deans-fur-Auto-Hubschrauber-Flugzeug-/142422438668?hash=item212909f30c:g:ww8AAOSwOMdZS4Do</t>
-  </si>
-  <si>
     <t>Raspi Zero W</t>
   </si>
   <si>
@@ -230,6 +206,57 @@
   </si>
   <si>
     <t>https://www.freakware.de/p/dys-be1806-bl-motor-2300kv-dys-be1806-a133842.htm?wgruppe=16697</t>
+  </si>
+  <si>
+    <t>Infos:</t>
+  </si>
+  <si>
+    <t>http://www.drohne-selber-bauen.net/</t>
+  </si>
+  <si>
+    <t>Turingy</t>
+  </si>
+  <si>
+    <t>Entladung ©</t>
+  </si>
+  <si>
+    <t>Entladung(A)</t>
+  </si>
+  <si>
+    <t>ZIPPY</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/de_de/zippy-flightmax-8000mah-5s1p-30c.html</t>
+  </si>
+  <si>
+    <t>Ah/kg</t>
+  </si>
+  <si>
+    <t>Gens Ace</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-2200mah-3s-25c-lipo-pack.html</t>
+  </si>
+  <si>
+    <t>Stromstärke</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/3S-11-1V-12V-40A-Lithium-battery-protection-board-W-balanced-Batterie-Charge-/222245734752?hash=item33bee0c960:g:oBUAAOSwMgdX0-Ia</t>
+  </si>
+  <si>
+    <t>3s 30A</t>
+  </si>
+  <si>
+    <t>DC/DC</t>
+  </si>
+  <si>
+    <t>12V zu 5V</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/6-24V-bis-5V-3A-USB-DC-DC-Step-Down-Spannungswandler-Konverter-Power-Supply-/222167488462</t>
   </si>
 </sst>
 </file>
@@ -585,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,14 +628,14 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>283.3</v>
+        <v>255.3</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -616,11 +643,11 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>684.2</v>
+        <v>582.20000000000005</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,14 +673,14 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
-        <v>9.2116182572614118</v>
+        <v>4.0531120331950206</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -692,27 +719,27 @@
       </c>
       <c r="C5" t="str">
         <f>Batterien!B2</f>
-        <v xml:space="preserve">SDI INR18650-25R </v>
+        <v>Turingy</v>
       </c>
       <c r="D5" s="6">
         <f>Batterien!C2</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>Batterien!E2</f>
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2">
         <f>Batterien!D2</f>
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -729,7 +756,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -757,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
         <v>26</v>
@@ -771,7 +798,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -794,7 +821,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -805,7 +832,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -825,7 +852,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -845,7 +872,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -869,7 +896,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -878,67 +905,102 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -955,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -970,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -984,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -999,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1015,22 +1077,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1039,303 +1101,400 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
       </c>
       <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <f>D2*G2</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="I2">
+        <f>D2/(E2/1000)</f>
+        <v>11.702127659574469</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>300</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="G3" s="2"/>
+      <c r="H3">
+        <f>D3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>D3/(E3/1000)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>1.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>130</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>425</v>
       </c>
       <c r="F4" s="2">
         <v>11.1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4">
+        <f>D4*G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>D4/(E4/1000)</f>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
-        <v>13.75</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E5" s="2">
-        <v>90</v>
+        <v>425</v>
       </c>
       <c r="F5" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <f>D5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>D5/(E5/1000)</f>
+        <v>12.941176470588236</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4">
-        <v>9.5</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>27</v>
+        <v>845</v>
       </c>
       <c r="F6" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f>D6*G6</f>
+        <v>240</v>
+      </c>
+      <c r="I6">
+        <f>D6/(E6/1000)</f>
+        <v>9.4674556213017755</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4">
-        <v>22.5</v>
+        <v>26.29</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="E7" s="2">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <f>D7*G7</f>
+        <v>116.25</v>
+      </c>
+      <c r="I7">
+        <f>D7/(E7/1000)</f>
+        <v>10.83916083916084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8">
+        <f>D8*G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9">
+        <f>D9*G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10">
+        <f>D10*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11">
+        <f>D11*G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12">
+        <f>D12*G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1359,26 +1518,17 @@
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:H11">
-    <sortCondition descending="1" ref="A2:A11"/>
+  <sortState ref="A2:J12">
+    <sortCondition descending="1" ref="A2:A12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="H2" r:id="rId5"/>
-    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1388,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1550,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1415,10 +1565,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1432,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1443,8 +1593,15 @@
       <c r="E2">
         <v>24</v>
       </c>
+      <c r="F2">
+        <v>7.6</v>
+      </c>
+      <c r="G2">
+        <f>D2/F2</f>
+        <v>11.842105263157896</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -1464,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
@@ -1484,7 +1641,7 @@
         <v>21.4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1529,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1540,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8">
         <v>9.5</v>
@@ -1549,10 +1706,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1664,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7">
         <v>16.8</v>
@@ -1673,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1856,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1711,10 +1868,10 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1725,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1737,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,13 +1923,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1783,7 +1940,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1792,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>Preis</t>
   </si>
@@ -257,6 +257,39 @@
   </si>
   <si>
     <t>http://www.ebay.de/itm/6-24V-bis-5V-3A-USB-DC-DC-Step-Down-Spannungswandler-Konverter-Power-Supply-/222167488462</t>
+  </si>
+  <si>
+    <t>Ampreremeter</t>
+  </si>
+  <si>
+    <t>Voltmeter</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Spannungssensor-Modul-Voltage-Detection-Sensor-Module-bis-25V-Arduino-/112282621061?hash=item1a2490d485:g:7TAAAOSw2xRYiq4d</t>
+  </si>
+  <si>
+    <t>0-25V</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Stromsensor-ACS712-30A-Modul-z-B-fur-Arduino-Bascom-Projekte-MCU-/112562689341?hash=item1a3542553d:g:IWMAAOSw3h1ZXlRR</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/ADS1115-AD-Wandler-ADC-4-Kanal-Channel-16-Bit-I2C-Arduino-Raspberry-digital-/162338257068?hash=item25cc1d38ac:g:DKEAAOSw409Zz5dX</t>
+  </si>
+  <si>
+    <t>A-D Wandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADS1115 </t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Active-Discovery-Buzzer-Beeper-Alarm-fur-Racecopter-Quadrocopter-3-5-5-5V-NAZE32-/182790259899?hash=item2a8f2604bb:g:UxgAAOSwKOJYKgCO</t>
+  </si>
+  <si>
+    <t>NAZE32</t>
   </si>
 </sst>
 </file>
@@ -613,7 +646,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +668,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>255.3</v>
+        <v>274.7</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -643,7 +676,7 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>582.20000000000005</v>
+        <v>589.20000000000005</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
@@ -829,6 +862,9 @@
       <c r="D10" s="6">
         <v>5</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -901,7 +937,15 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -940,43 +984,91 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>3.5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F18">
+        <v>3.5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -985,13 +1077,13 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1000,6 +1092,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H16" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId2"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1080,7 +1176,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,11 +1241,11 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <f>D2*G2</f>
+        <f t="shared" ref="H2:H12" si="0">D2*G2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="I2">
-        <f>D2/(E2/1000)</f>
+        <f t="shared" ref="I2:I7" si="1">D2/(E2/1000)</f>
         <v>11.702127659574469</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1177,11 +1273,11 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3">
-        <f>D3*G3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>D3/(E3/1000)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1209,11 +1305,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4">
-        <f>D4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>D4/(E4/1000)</f>
+        <f t="shared" si="1"/>
         <v>11.538461538461538</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1241,11 +1337,11 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5">
-        <f>D5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>D5/(E5/1000)</f>
+        <f t="shared" si="1"/>
         <v>12.941176470588236</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1275,11 +1371,11 @@
         <v>30</v>
       </c>
       <c r="H6">
-        <f>D6*G6</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I6">
-        <f>D6/(E6/1000)</f>
+        <f t="shared" si="1"/>
         <v>9.4674556213017755</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1309,11 +1405,11 @@
         <v>75</v>
       </c>
       <c r="H7">
-        <f>D7*G7</f>
+        <f t="shared" si="0"/>
         <v>116.25</v>
       </c>
       <c r="I7">
-        <f>D7/(E7/1000)</f>
+        <f t="shared" si="1"/>
         <v>10.83916083916084</v>
       </c>
     </row>
@@ -1324,7 +1420,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8">
-        <f>D8*G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1335,7 +1431,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9">
-        <f>D9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1346,7 +1442,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10">
-        <f>D10*G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1453,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11">
-        <f>D11*G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1464,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12">
-        <f>D12*G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -646,7 +646,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>Preis</t>
   </si>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t>NAZE32</t>
+  </si>
+  <si>
+    <t>Ladegerät</t>
+  </si>
+  <si>
+    <t>B3AC (30W)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Original-GoolRC-Kompakt-Ladeger%C3%A4t-Quadrocopter/dp/B01HXMU27S/ref=sr_1_9?ie=UTF8&amp;qid=1507474749&amp;sr=8-9&amp;keywords=lipo+charger+3s</t>
+  </si>
+  <si>
+    <t>Anschlussbuchse</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/5-Stuck-2S-3S-4S-5S-6S-Balancer-Gehause-XH-Buchse-Balancerkabel-Stecker-Clip-/321356802593?var=&amp;hash=item4ad25baa21:m:mhVh2tkxxGA1wor0IZJwc5Q</t>
   </si>
 </sst>
 </file>
@@ -646,7 +661,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +683,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>274.7</v>
+        <v>288.89</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -1042,10 +1057,35 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
@@ -1096,6 +1136,8 @@
     <hyperlink ref="H18" r:id="rId3"/>
     <hyperlink ref="H19" r:id="rId4"/>
     <hyperlink ref="H14" r:id="rId5"/>
+    <hyperlink ref="H20" r:id="rId6"/>
+    <hyperlink ref="H21" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -11,10 +11,11 @@
     <sheet name="Kamera" sheetId="9" r:id="rId2"/>
     <sheet name="Batterien" sheetId="4" r:id="rId3"/>
     <sheet name="Motoren" sheetId="2" r:id="rId4"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId5"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId6"/>
-    <sheet name="ESC" sheetId="6" r:id="rId7"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId8"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId5"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId6"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId7"/>
+    <sheet name="ESC" sheetId="6" r:id="rId8"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
   <si>
     <t>Preis</t>
   </si>
@@ -305,6 +306,27 @@
   </si>
   <si>
     <t>http://www.ebay.de/itm/5-Stuck-2S-3S-4S-5S-6S-Balancer-Gehause-XH-Buchse-Balancerkabel-Stecker-Clip-/321356802593?var=&amp;hash=item4ad25baa21:m:mhVh2tkxxGA1wor0IZJwc5Q</t>
+  </si>
+  <si>
+    <t>Suppo 2204/14</t>
+  </si>
+  <si>
+    <t>zugehöriger Motor</t>
+  </si>
+  <si>
+    <t>http://www.altitudehobbies.com/brushless-motor-300-28-12-1400kv-suppo-2204-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Langsam Flyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2212/13</t>
+  </si>
+  <si>
+    <t>http://www.altitudehobbies.com/brushless-motor-400-28-30-1000kv-suppo-2212-13</t>
+  </si>
+  <si>
+    <t>3-Blatt</t>
   </si>
 </sst>
 </file>
@@ -661,7 +683,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,15 +705,15 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>288.89</v>
+        <v>262.89000000000004</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
-        <v>361.5</v>
+        <v>333.5</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>589.20000000000005</v>
+        <v>573.20000000000005</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
@@ -725,7 +747,7 @@
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
-        <v>4.0531120331950206</v>
+        <v>4.3934032983508251</v>
       </c>
       <c r="M3" t="s">
         <v>57</v>
@@ -740,19 +762,19 @@
       </c>
       <c r="C4" t="str">
         <f>Motoren!B2</f>
-        <v xml:space="preserve">BE1806 </v>
+        <v>Suppo 2204/14</v>
       </c>
       <c r="D4" s="6">
         <f>Motoren!C2*B4</f>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <f>Motoren!D2*B4</f>
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F4">
         <f>Motoren!E2*Drohne!B4</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -874,8 +896,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <v>5</v>
+      <c r="C10" t="str">
+        <f>Propeller!B2</f>
+        <v xml:space="preserve"> Langsam Flyer</v>
+      </c>
+      <c r="D10" s="8">
+        <f>Propeller!C2</f>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1674,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,26 +1747,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
       <c r="F2">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <f>D2/F2</f>
-        <v>11.842105263157896</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,56 +1773,204 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>7.6</v>
+      </c>
+      <c r="G3">
+        <f>D3/F3</f>
+        <v>11.842105263157896</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5.4</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>21.4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>135</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:I4">
-    <sortCondition descending="1" ref="A2:A4"/>
+  <sortState ref="A2:I6">
+    <sortCondition descending="1" ref="A2:A6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="D3">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -1927,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1979,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2045,7 +2219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Preis</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Stärke (A)</t>
   </si>
   <si>
-    <t>https://hobbyking.com/en_us/xm20a-mini-esc.html</t>
-  </si>
-  <si>
-    <t>DYS XM20A</t>
-  </si>
-  <si>
     <t>Pipser</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Acc, Gyro, Comp</t>
   </si>
   <si>
-    <t>http://www.watterott.com/de/9-DOF-IMU-Module-With-MPU-9250</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDI INR18650-25R </t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>1080p</t>
   </si>
   <si>
-    <t>https://www.distrelec.de/de/hd-weitwinkel-kameramodul-raspberry-pi-pi-2b-raspberry-pi-rpi-wwcam/p/30037327?channel=b2c&amp;price_gs=39.9007&amp;wt_mc=de.cse.gshop.de.-&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSEUCnkaAt0AEALw_wcB</t>
-  </si>
-  <si>
     <t>Ladeschaltkreis</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>zugehöriger Motor</t>
   </si>
   <si>
-    <t>http://www.altitudehobbies.com/brushless-motor-300-28-12-1400kv-suppo-2204-14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Langsam Flyer</t>
   </si>
   <si>
@@ -327,6 +312,66 @@
   </si>
   <si>
     <t>3-Blatt</t>
+  </si>
+  <si>
+    <t>GPS-Empfänger</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/niceeshop-Ublox-Aircraft-Flight-Controller/dp/B00S4RLICU/ref=sr_1_1?ie=UTF8&amp;qid=1507564538&amp;sr=8-1&amp;keywords=GY-GPS6MV2</t>
+  </si>
+  <si>
+    <t>Widerstände</t>
+  </si>
+  <si>
+    <t>Kkmoon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/KKmoon-860pcs-Ohm-Widerst%C3%A4nde-Elektronikkomponenten/dp/B01HMBFQWG/ref=sr_1_4?s=ce-de&amp;ie=UTF8&amp;qid=1507564808&amp;sr=1-4&amp;keywords=widerst%C3%A4nde</t>
+  </si>
+  <si>
+    <t>NEO-6M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Camera-Module-Adjustable-Resolution-Raspberry/dp/B06ZZQZT66/ref=sr_1_4?ie=UTF8&amp;qid=1507565270&amp;sr=8-4&amp;keywords=raspberry+camera+objektiv&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSEUCnkaAt0AEALw_wcB</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B06ZZH27SY</t>
+  </si>
+  <si>
+    <t>oben dabei</t>
+  </si>
+  <si>
+    <t>Deans</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/11-1V-2200mAh-3S-25C-Lipo-Akku-Batterie-Deans-fur-RC-Auto-Flugzeug-Quadcopter-EU-/182748781905?hash=item2a8cad1d51:g:1xwAAOSwZcZZrkKY</t>
+  </si>
+  <si>
+    <t>Empfohlene Motorstärke</t>
+  </si>
+  <si>
+    <t>g/Motor</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Torcster-Brushless-Gold-A2204-14-1700-19g-181463-X-/390971288258?epid=1723471922&amp;hash=item5b07b46ac2:g:sncAAOSwMNxXaVtX</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/apc-propeller-2-blatt-multicopter-propeller-set-7-x-4-zoll-178-x-102-cm-apcb07040e-1530776.html</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/9-Achsen-MPU-9250-Nine-Axis-Electronic-Compass-Accelerometer-Module-GY-9250-/172295479725?hash=item281d9c61ad:g:lv8AAOSwI7tZ0KNU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B073VLXHJV?psc=1</t>
+  </si>
+  <si>
+    <t>DYS DS20A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Raspberry-Zero-Wireless-Essentials-Kit/dp/B06XCYGP27/ref=sr_1_2?ie=UTF8&amp;qid=1507568609&amp;sr=8-2&amp;keywords=raspberry+pi+zero+w</t>
   </si>
 </sst>
 </file>
@@ -680,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +741,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -705,7 +750,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>262.89000000000004</v>
+        <v>295.67999999999995</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -713,14 +758,26 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>573.20000000000005</v>
+        <v>540.20000000000005</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2">
+        <f>(F1*2)/4</f>
+        <v>270.10000000000002</v>
+      </c>
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,17 +800,17 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.3934032983508251</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -766,7 +823,7 @@
       </c>
       <c r="D4" s="6">
         <f>Motoren!C2*B4</f>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <f>Motoren!D2*B4</f>
@@ -780,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -789,25 +846,25 @@
       </c>
       <c r="C5" t="str">
         <f>Batterien!B2</f>
-        <v>Turingy</v>
+        <v>Deans</v>
       </c>
       <c r="D5" s="6">
         <f>Batterien!C2</f>
-        <v>10</v>
+        <v>15.7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>Batterien!E2</f>
-        <v>188</v>
+        <v>172.4</v>
       </c>
       <c r="G5" s="2">
         <f>Batterien!D2</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -824,7 +881,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -846,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -865,31 +922,34 @@
       <c r="F8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="str">
         <f>ESC!B2</f>
-        <v>DYS XM20A</v>
+        <v>DYS DS20A</v>
       </c>
       <c r="D9" s="6">
         <f>ESC!C2*B9</f>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <f>ESC!D2*Drohne!B9</f>
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -902,13 +962,13 @@
       </c>
       <c r="D10" s="8">
         <f>Propeller!C2</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -921,16 +981,16 @@
       </c>
       <c r="D11" s="8">
         <f>Sensoren!C2</f>
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <f>Sensoren!D2</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -948,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -961,7 +1021,7 @@
       </c>
       <c r="D13" s="8">
         <f>Kamera!C2</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <f>Kamera!E2</f>
@@ -972,32 +1032,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6">
         <v>10.4</v>
@@ -1006,35 +1066,35 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6">
         <v>2.6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
@@ -1043,18 +1103,18 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6">
         <v>3.5</v>
@@ -1063,46 +1123,46 @@
         <v>3.5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6">
         <v>5.9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="6">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1111,14 +1171,42 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10.59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
@@ -1137,10 +1225,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -1165,6 +1253,7 @@
     <hyperlink ref="H14" r:id="rId5"/>
     <hyperlink ref="H20" r:id="rId6"/>
     <hyperlink ref="H21" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1172,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1211,10 +1300,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <f>(27+8)</f>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -1226,15 +1316,33 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" display="https://www.distrelec.de/de/hd-weitwinkel-kameramodul-raspberry-pi-pi-2b-raspberry-pi-rpi-wwcam/p/30037327?channel=b2c&amp;price_gs=39.9007&amp;wt_mc=de.cse.gshop.de.-&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahX"/>
+    <hyperlink ref="H2"/>
+    <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1245,7 +1353,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,13 +1383,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1292,33 +1400,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>15.7</v>
       </c>
       <c r="D2" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="E2" s="2">
-        <v>188</v>
+        <v>172.4</v>
       </c>
       <c r="F2" s="2">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="G2" s="2">
         <v>25</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H12" si="0">D2*G2</f>
+        <f>D2*G2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I7" si="1">D2/(E2/1000)</f>
-        <v>11.702127659574469</v>
+        <f>D2/(E2/1000)</f>
+        <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1326,31 +1434,33 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>25</v>
+      </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D3*G3</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <f>D3/(E3/1000)</f>
+        <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,31 +1468,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>300</v>
+      </c>
+      <c r="F4" s="2">
         <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>130</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11.1</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>D4*G4</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>11.538461538461538</v>
+        <f>D4/(E4/1000)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1390,31 +1500,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="2">
-        <v>425</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2">
         <v>11.1</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>D5*G5</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>12.941176470588236</v>
+        <f>D5/(E5/1000)</f>
+        <v>11.538461538461538</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,33 +1532,31 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="E6" s="2">
-        <v>845</v>
+        <v>425</v>
       </c>
       <c r="F6" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
+        <v>11.1</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f>D6*G6</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>9.4674556213017755</v>
+        <f>D6/(E6/1000)</f>
+        <v>12.941176470588236</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1456,41 +1564,64 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>845</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <f>D7*G7</f>
+        <v>240</v>
+      </c>
+      <c r="I7">
+        <f>D7/(E7/1000)</f>
+        <v>9.4674556213017755</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4">
         <v>26.29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>1.55</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>143</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>11.1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>75</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f>D8*G8</f>
         <v>116.25</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="I8">
+        <f>D8/(E8/1000)</f>
         <v>10.83916083916084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1500,7 +1631,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>D9*G9</f>
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1642,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>D10*G10</f>
         <v>0</v>
       </c>
     </row>
@@ -1522,7 +1653,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H2:H12" si="0">D11*G11</f>
         <v>0</v>
       </c>
     </row>
@@ -1539,11 +1670,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1684,16 +1815,17 @@
       <c r="C39" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J12">
-    <sortCondition descending="1" ref="A2:A12"/>
+  <sortState ref="A2:J10">
+    <sortCondition descending="1" ref="A2:A10"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J6" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
     <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J2" r:id="rId6"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1704,7 +1836,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,10 +1862,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1747,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>83</v>
@@ -1765,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1792,7 +1924,7 @@
         <v>11.842105263157896</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1840,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>15.5</v>
@@ -1858,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1879,15 +2011,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1898,29 +2030,35 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2204</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="8">
         <v>2.57</v>
@@ -1929,40 +2067,40 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -1975,7 +2113,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -2009,19 +2147,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>16.8</v>
@@ -2142,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2296,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>5.8</v>
@@ -2205,8 +2343,8 @@
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
+      <c r="I2" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2215,6 +2353,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2224,7 +2365,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Preis</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>https://www.amazon.de/Raspberry-Zero-Wireless-Essentials-Kit/dp/B06XCYGP27/ref=sr_1_2?ie=UTF8&amp;qid=1507568609&amp;sr=8-2&amp;keywords=raspberry+pi+zero+w</t>
+  </si>
+  <si>
+    <t>ElektroBoard</t>
+  </si>
+  <si>
+    <t>Prototpe Papier</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/10x-Lot-DIY-Prototype-Papier-Universal-PCB-Matrix-Circuit-Board-5x7cm-PCB-foren-/372015551064?hash=item569ddad258:g:xooAAOSwBxZZbKle</t>
   </si>
 </sst>
 </file>
@@ -727,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +759,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>295.67999999999995</v>
+        <v>296.67999999999995</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
@@ -1187,7 +1196,7 @@
       <c r="D22" s="6">
         <v>10.59</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1204,12 +1213,26 @@
       <c r="D23" s="6">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
@@ -1254,6 +1277,8 @@
     <hyperlink ref="H20" r:id="rId6"/>
     <hyperlink ref="H21" r:id="rId7"/>
     <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H22" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1341,7 +1366,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2"/>
+    <hyperlink ref="H2" display="https://www.amazon.de/Camera-Module-Adjustable-Resolution-Raspberry/dp/B06ZZQZT66/ref=sr_1_4?ie=UTF8&amp;qid=1507565270&amp;sr=8-4&amp;keywords=raspberry+camera+objektiv&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSE"/>
     <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1418,11 +1443,11 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <f>D2*G2</f>
+        <f t="shared" ref="H2:H10" si="0">D2*G2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="I2">
-        <f>D2/(E2/1000)</f>
+        <f t="shared" ref="I2:I8" si="1">D2/(E2/1000)</f>
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1452,11 +1477,11 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <f>D3*G3</f>
+        <f t="shared" si="0"/>
         <v>55.000000000000007</v>
       </c>
       <c r="I3">
-        <f>D3/(E3/1000)</f>
+        <f t="shared" si="1"/>
         <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1484,11 +1509,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4">
-        <f>D4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>D4/(E4/1000)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1516,11 +1541,11 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5">
-        <f>D5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>D5/(E5/1000)</f>
+        <f t="shared" si="1"/>
         <v>11.538461538461538</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1548,11 +1573,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6">
-        <f>D6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>D6/(E6/1000)</f>
+        <f t="shared" si="1"/>
         <v>12.941176470588236</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1582,11 +1607,11 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <f>D7*G7</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I7">
-        <f>D7/(E7/1000)</f>
+        <f t="shared" si="1"/>
         <v>9.4674556213017755</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1616,11 +1641,11 @@
         <v>75</v>
       </c>
       <c r="H8">
-        <f>D8*G8</f>
+        <f t="shared" si="0"/>
         <v>116.25</v>
       </c>
       <c r="I8">
-        <f>D8/(E8/1000)</f>
+        <f t="shared" si="1"/>
         <v>10.83916083916084</v>
       </c>
     </row>
@@ -1631,7 +1656,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9">
-        <f>D9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1642,7 +1667,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10">
-        <f>D10*G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1653,7 +1678,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11">
-        <f t="shared" ref="H2:H12" si="0">D11*G11</f>
+        <f t="shared" ref="H11:H12" si="2">D11*G11</f>
         <v>0</v>
       </c>
     </row>
@@ -1664,7 +1689,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2364,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2074,7 @@
       <c r="D2">
         <v>2204</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2129,6 +2129,9 @@
       <c r="C15" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2389,7 +2392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>Preis</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>http://www.ebay.de/itm/10x-Lot-DIY-Prototype-Papier-Universal-PCB-Matrix-Circuit-Board-5x7cm-PCB-foren-/372015551064?hash=item569ddad258:g:xooAAOSwBxZZbKle</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/i/172264391710?chn=ps&amp;dispItem=1</t>
   </si>
 </sst>
 </file>
@@ -737,7 +743,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +773,7 @@
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>540.20000000000005</v>
+        <v>543.1</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
@@ -780,7 +786,7 @@
       </c>
       <c r="M2">
         <f>(F1*2)/4</f>
-        <v>270.10000000000002</v>
+        <v>271.55</v>
       </c>
       <c r="N2" t="s">
         <v>108</v>
@@ -1054,6 +1060,9 @@
       <c r="D14" s="6">
         <v>5</v>
       </c>
+      <c r="F14">
+        <v>2.9</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>82</v>
       </c>
@@ -1074,7 +1083,7 @@
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1279,6 +1288,7 @@
     <hyperlink ref="H8" r:id="rId8"/>
     <hyperlink ref="H22" r:id="rId9"/>
     <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2038,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2201,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
@@ -2271,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2342,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="Kamera" sheetId="9" r:id="rId2"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId3"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId4"/>
-    <sheet name="Propeller" sheetId="10" r:id="rId5"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId6"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId7"/>
-    <sheet name="ESC" sheetId="6" r:id="rId8"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId9"/>
+    <sheet name="BMS" sheetId="11" r:id="rId2"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId3"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId4"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId5"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId6"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId7"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId8"/>
+    <sheet name="ESC" sheetId="6" r:id="rId9"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>Preis</t>
   </si>
@@ -113,12 +114,6 @@
     <t>Kapazität(GB)</t>
   </si>
   <si>
-    <t>San Disk Ultra</t>
-  </si>
-  <si>
-    <t>http://www.ebay.de/itm/SD-Speicherkarte-San-Disk-Ultra-32-GB-micro-SDHC-UHS-mit-Adapter-NEU-OVP/272800832329?_trkparms=aid%3D555018%26algo%3DPL.SIM%26ao%3D2%26asc%3D46153%26meid%3Dabe2b08fe3bc469681daa0de2d3e19e9%26pid%3D100005%26rk%3D3%26rkt%3D6%26sd%3D331727333342&amp;_trksid=p2047675.c100005.m1851</t>
-  </si>
-  <si>
     <t>Sd-Karte</t>
   </si>
   <si>
@@ -176,9 +171,6 @@
     <t>1080p</t>
   </si>
   <si>
-    <t>Ladeschaltkreis</t>
-  </si>
-  <si>
     <t>https://electronics.stackexchange.com/questions/149093/do-i-need-a-balance-charger-if-i-use-a-protection-circuit-module-for-li-ion-batt</t>
   </si>
   <si>
@@ -290,9 +282,6 @@
     <t>https://www.amazon.de/Original-GoolRC-Kompakt-Ladeger%C3%A4t-Quadrocopter/dp/B01HXMU27S/ref=sr_1_9?ie=UTF8&amp;qid=1507474749&amp;sr=8-9&amp;keywords=lipo+charger+3s</t>
   </si>
   <si>
-    <t>Anschlussbuchse</t>
-  </si>
-  <si>
     <t>http://www.ebay.de/itm/5-Stuck-2S-3S-4S-5S-6S-Balancer-Gehause-XH-Buchse-Balancerkabel-Stecker-Clip-/321356802593?var=&amp;hash=item4ad25baa21:m:mhVh2tkxxGA1wor0IZJwc5Q</t>
   </si>
   <si>
@@ -387,6 +376,39 @@
   </si>
   <si>
     <t>https://www.ebay.de/i/172264391710?chn=ps&amp;dispItem=1</t>
+  </si>
+  <si>
+    <t>Bullet-Connector</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Besonderheiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5*9cm</t>
+  </si>
+  <si>
+    <t>BalanceCharge</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Kingston-32GB-32-GB-microSDHC-Speicherkarte-Class-10-UHS-I-inkl-SD-Adapter-/331706107012?hash=item4d3b398484</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/3S-30A-li-ion-BMS-PCM-battery-protection-board-for-lithium-li-ion-battery-pack-/272095763951</t>
+  </si>
+  <si>
+    <t>6*6cm, dollar</t>
+  </si>
+  <si>
+    <t>5,6*4,5cm; -25A</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/3S-11-1V-12V-Battery-Protection-Board-With-Balance-Function-/112457652565?hash=item1a2eff9955:g:S50AAOSw6ShZUWl-</t>
   </si>
 </sst>
 </file>
@@ -743,7 +765,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,31 +787,31 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>296.67999999999995</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:G1" si="0">SUM(E4:E39)</f>
+        <f>SUM(E4:E39)</f>
         <v>333.5</v>
       </c>
       <c r="F1" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F39)</f>
         <v>543.1</v>
       </c>
       <c r="G1" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G4:G39)</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M2">
         <f>(F1*2)/4</f>
         <v>271.55</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,14 +837,14 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.3934032983508251</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -881,7 +903,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -898,14 +920,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="str">
         <f>'SD-Karte'!B2</f>
-        <v>San Disk Ultra</v>
+        <v>Kingston</v>
       </c>
       <c r="D7" s="6">
         <f>'SD-Karte'!D2</f>
@@ -938,12 +960,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -966,7 +988,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -985,7 +1007,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1005,7 +1027,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1025,7 +1047,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1049,13 +1071,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
@@ -1064,55 +1086,55 @@
         <v>2.9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10.4</v>
+      <c r="C15">
+        <f>BMS!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f>BMS!C2</f>
+        <v>9</v>
       </c>
       <c r="F15">
+        <f>BMS!D2</f>
         <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6">
         <v>2.6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
@@ -1121,18 +1143,18 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>74</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="6">
         <v>3.5</v>
@@ -1141,46 +1163,46 @@
         <v>3.5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6">
         <v>5.9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1189,61 +1211,64 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" s="6">
         <v>10.59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,10 +1282,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -1288,13 +1313,168 @@
     <hyperlink ref="H8" r:id="rId8"/>
     <hyperlink ref="H22" r:id="rId9"/>
     <hyperlink ref="H23" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G5">
+    <sortCondition descending="1" ref="A2:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1321,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1335,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1">
         <f>(27+8)</f>
@@ -1351,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -1418,13 +1598,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1435,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4">
         <v>15.7</v>
@@ -1461,7 +1641,7 @@
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -1495,7 +1675,7 @@
         <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1503,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -1527,7 +1707,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>42</v>
@@ -1625,7 +1805,7 @@
         <v>9.4674556213017755</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4">
         <v>26.29</v>
@@ -1705,11 +1885,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1866,12 +2046,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1914,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -1932,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1959,7 +2139,7 @@
         <v>11.842105263157896</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1">
         <v>15.5</v>
@@ -2025,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2065,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -2076,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
@@ -2085,7 +2265,7 @@
         <v>2204</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8">
         <v>2.57</v>
@@ -2146,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2174,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -2185,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8">
         <v>8</v>
@@ -2194,10 +2374,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,10 +2385,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,58 +2456,6 @@
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7">
-        <v>16.8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2338,6 +2466,58 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2367,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -2378,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>33</v>
@@ -2390,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,54 +2584,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>Preis</t>
   </si>
@@ -144,9 +144,6 @@
     <t>MPL3115A2</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/SparkFun-Altitude-Pressure-Sensor-Breakout-MPL3115A2-SEN-11084-/282153221726?_trksid=p2385738.m2548.l4275</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t xml:space="preserve"> 5*9cm</t>
   </si>
   <si>
-    <t>BalanceCharge</t>
-  </si>
-  <si>
     <t>http://www.ebay.de/itm/Kingston-32GB-32-GB-microSDHC-Speicherkarte-Class-10-UHS-I-inkl-SD-Adapter-/331706107012?hash=item4d3b398484</t>
   </si>
   <si>
@@ -409,6 +403,27 @@
   </si>
   <si>
     <t>http://www.ebay.de/itm/3S-11-1V-12V-Battery-Protection-Board-With-Balance-Function-/112457652565?hash=item1a2eff9955:g:S50AAOSw6ShZUWl-</t>
+  </si>
+  <si>
+    <t>BalanceCharger</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/MPL3115A2-I2C-Intelligent-Temperature-Pressure-Altitude-Sensor-V2-0-For-Arduino-/272762275682?hash=item3f81e60762:g:oJIAAOSwJq1ZaMuB</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/10-Pairs-RC-3-5mm-Male-Female-Gold-plated-Bullet-Banana-Plug-Connector-Set-/272842454614?hash=item3f86ad7656:g:ijUAAOSw5YNZtjoR</t>
+  </si>
+  <si>
+    <t>Level Shifter</t>
+  </si>
+  <si>
+    <t>bidirektional</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/4-Kanal-Pegelwandler-5V-3-3V-4-Channel-Level-Shifter-Converter-bidirektional-/201450662471?hash=item2ee7652a47:g:Z-MAAOSwdW1Z6aI~</t>
+  </si>
+  <si>
+    <t>Plug 3.5mm</t>
   </si>
 </sst>
 </file>
@@ -764,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +802,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>295.27999999999997</v>
+        <v>286.08</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E39)</f>
@@ -804,14 +819,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <f>(F1*2)/4</f>
         <v>271.55</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -837,14 +852,14 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.3934032983508251</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -960,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1038,7 +1053,7 @@
       </c>
       <c r="D12" s="8">
         <f>Höhe!C2</f>
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f>Höhe!D2</f>
@@ -1077,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
@@ -1086,12 +1101,12 @@
         <v>2.9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1111,30 +1126,30 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="6">
         <v>2.6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
@@ -1143,18 +1158,18 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6">
         <v>3.5</v>
@@ -1163,46 +1178,46 @@
         <v>3.5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
       </c>
       <c r="D19" s="6">
         <v>5.9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
       </c>
       <c r="D20" s="6">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1211,68 +1226,93 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="6">
         <v>10.59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>93</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
@@ -1282,10 +1322,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -1313,6 +1353,8 @@
     <hyperlink ref="H8" r:id="rId8"/>
     <hyperlink ref="H22" r:id="rId9"/>
     <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="H26" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1351,7 +1393,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1360,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1415,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="8">
         <v>10.4</v>
@@ -1435,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1501,10 +1543,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1515,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <f>(27+8)</f>
@@ -1531,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1542,16 +1584,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1598,13 +1640,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1615,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4">
         <v>15.7</v>
@@ -1641,7 +1683,7 @@
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -1675,7 +1717,7 @@
         <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1683,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -1707,7 +1749,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1779,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>42</v>
@@ -1805,7 +1847,7 @@
         <v>9.4674556213017755</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
         <v>26.29</v>
@@ -1885,11 +1927,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2050,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2077,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2094,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -2112,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -2139,7 +2181,7 @@
         <v>11.842105263157896</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
         <v>15.5</v>
@@ -2205,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -2256,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
@@ -2265,7 +2307,7 @@
         <v>2204</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2273,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8">
         <v>2.57</v>
@@ -2331,7 +2373,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2396,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -2365,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="8">
         <v>8</v>
@@ -2374,10 +2416,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,10 +2427,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,6 +2502,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2470,7 +2513,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,13 +2543,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="7">
-        <v>16.8</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1">
         <v>33</v>
@@ -2570,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>Preis</t>
   </si>
@@ -417,13 +417,37 @@
     <t>Level Shifter</t>
   </si>
   <si>
-    <t>bidirektional</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/4-Kanal-Pegelwandler-5V-3-3V-4-Channel-Level-Shifter-Converter-bidirektional-/201450662471?hash=item2ee7652a47:g:Z-MAAOSwdW1Z6aI~</t>
   </si>
   <si>
     <t>Plug 3.5mm</t>
+  </si>
+  <si>
+    <t>Emax Mt1006</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Mt1806-2280kv-B%C3%BCrstenloser-Motor-Quadcopter/dp/B017IFETN8/ref=sr_1_1?ie=UTF8&amp;qid=1508677221&amp;sr=8-1&amp;keywords=emax+mt1806+2280kv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>https://www.ecalc.ch/xcoptercalc.php</t>
+  </si>
+  <si>
+    <t>5x3</t>
+  </si>
+  <si>
+    <t>https://www.freakware.de/p/hb-race-copter-250-pro-super-combo-modster-mods186337-a129825.htm?ref=gs&amp;gclid=Cj0KCQjwg7HPBRDUARIsAMeR_0gQD87fzCUMdMUkslmt0mDIQxVC9YpE1t8kiWzEK2W9zLDPn1Ks3YwaAl2gEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/5x3-Quadrocopter-FPV-Racing-250-330-Propeller-Luftschraube-CCW-CW-5030-ABS-GFK-/162039331545?var=&amp;hash=item25ba4bfad9:g:cGgAAOSwjghZ0pLH</t>
+  </si>
+  <si>
+    <t>4ch - bidirektional</t>
   </si>
 </sst>
 </file>
@@ -512,6 +536,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>725630</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>29729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Bildschirmausschnitt"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="4914900"/>
+          <a:ext cx="12393755" cy="8268854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +853,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,15 +875,15 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>286.08</v>
+        <v>261.08000000000004</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E39)</f>
-        <v>333.5</v>
+        <v>301.5</v>
       </c>
       <c r="F1" s="2">
         <f>SUM(F4:F39)</f>
-        <v>543.1</v>
+        <v>535.1</v>
       </c>
       <c r="G1" s="2">
         <f>SUM(G4:G39)</f>
@@ -823,7 +896,7 @@
       </c>
       <c r="M2">
         <f>(F1*2)/4</f>
-        <v>271.55</v>
+        <v>267.55</v>
       </c>
       <c r="N2" t="s">
         <v>103</v>
@@ -856,7 +929,7 @@
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
-        <v>4.3934032983508251</v>
+        <v>4.8597014925373134</v>
       </c>
       <c r="M3" t="s">
         <v>49</v>
@@ -871,19 +944,19 @@
       </c>
       <c r="C4" t="str">
         <f>Motoren!B2</f>
-        <v>Suppo 2204/14</v>
+        <v>Emax Mt1006</v>
       </c>
       <c r="D4" s="6">
         <f>Motoren!C2*B4</f>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <f>Motoren!D2*B4</f>
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <f>Motoren!E2*Drohne!B4</f>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1010,11 +1083,11 @@
       </c>
       <c r="C10" t="str">
         <f>Propeller!B2</f>
-        <v xml:space="preserve"> Langsam Flyer</v>
+        <v>5x3</v>
       </c>
       <c r="D10" s="8">
         <f>Propeller!C2</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1288,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="6">
         <v>1.35</v>
@@ -1305,13 +1378,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D26" s="6">
         <v>2.25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2090,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,25 +2209,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>83</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
       <c r="F2">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>104</v>
+      <c r="I2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,26 +2235,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
       <c r="F3">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <f>D3/F3</f>
-        <v>11.842105263157896</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2189,80 +2261,126 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>7.6</v>
+      </c>
+      <c r="G4">
+        <f>D4/F4</f>
+        <v>11.842105263157896</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>5.4</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <v>21.4</v>
+        <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>5.4</v>
+      </c>
+      <c r="E6">
+        <v>21.4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>15.5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>135</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>47</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>11</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:I6">
-    <sortCondition descending="1" ref="A2:A6"/>
+  <sortState ref="A2:I7">
+    <sortCondition descending="1" ref="A2:A7"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="I6" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="J24" r:id="rId6"/>
+    <hyperlink ref="J25" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2271,7 +2389,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,16 +2416,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C2" s="8">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>2204</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,17 +2430,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2204</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="8">
         <v>2.57</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2212</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
@@ -2361,8 +2490,12 @@
       <c r="C15" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F6">
+    <sortCondition descending="1" ref="A2:A6"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
   <si>
     <t>Preis</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>4ch - bidirektional</t>
+  </si>
+  <si>
+    <t>Boost-Converter</t>
+  </si>
+  <si>
+    <t>Ladegerät 2</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/DC-Boost-Modul-8-32V-auf-9-46V-150W-Netzteil-Converter-Step-up-Powersupply-Modul/302482938686?hash=item466d635b3e:g:rxkAAOSw62VZxNJ8</t>
+  </si>
+  <si>
+    <t>Netzteil</t>
+  </si>
+  <si>
+    <t>Computernetzteil</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -519,6 +534,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -853,7 +871,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +893,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>261.08000000000004</v>
+        <v>268.08000000000004</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E39)</f>
@@ -939,7 +957,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>4</v>
       </c>
       <c r="C4" t="str">
@@ -966,7 +984,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" t="str">
@@ -993,7 +1011,7 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="6">
@@ -1010,7 +1028,7 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="str">
@@ -1032,7 +1050,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -1055,7 +1073,7 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" t="str">
@@ -1078,7 +1096,7 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" t="str">
@@ -1097,7 +1115,7 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" t="str">
@@ -1117,7 +1135,7 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" t="str">
@@ -1137,7 +1155,7 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" t="str">
@@ -1161,7 +1179,7 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -1181,7 +1199,7 @@
       <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15">
@@ -1201,7 +1219,7 @@
       <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -1218,7 +1236,7 @@
       <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -1238,7 +1256,7 @@
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -1258,7 +1276,7 @@
       <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -1275,7 +1293,7 @@
       <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -1292,7 +1310,7 @@
       <c r="A21" t="s">
         <v>125</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="6">
@@ -1306,7 +1324,7 @@
       <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1323,7 +1341,7 @@
       <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1340,7 +1358,7 @@
       <c r="A24" t="s">
         <v>110</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1357,7 +1375,7 @@
       <c r="A25" t="s">
         <v>115</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1374,7 +1392,7 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1388,9 +1406,32 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1491,7 +1532,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2207,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2267,7 @@
       <c r="G2">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2377,10 +2418,11 @@
     <hyperlink ref="I7" r:id="rId5"/>
     <hyperlink ref="J24" r:id="rId6"/>
     <hyperlink ref="J25" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="BMS" sheetId="11" r:id="rId2"/>
-    <sheet name="Kamera" sheetId="9" r:id="rId3"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId4"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId5"/>
-    <sheet name="Propeller" sheetId="10" r:id="rId6"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId7"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId8"/>
-    <sheet name="ESC" sheetId="6" r:id="rId9"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId10"/>
+    <sheet name="Zahlungen" sheetId="12" r:id="rId2"/>
+    <sheet name="BMS" sheetId="11" r:id="rId3"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId4"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId7"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId8"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId9"/>
+    <sheet name="ESC" sheetId="6" r:id="rId10"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>Preis</t>
   </si>
@@ -123,9 +124,6 @@
     <t>Propeller</t>
   </si>
   <si>
-    <t>Sensorenpacket</t>
-  </si>
-  <si>
     <t>Kamera</t>
   </si>
   <si>
@@ -186,12 +184,6 @@
     <t>https://www.freakware.de/p/dys-be1806-bl-motor-2300kv-dys-be1806-a133842.htm?wgruppe=16697</t>
   </si>
   <si>
-    <t>Infos:</t>
-  </si>
-  <si>
-    <t>http://www.drohne-selber-bauen.net/</t>
-  </si>
-  <si>
     <t>Turingy</t>
   </si>
   <si>
@@ -279,9 +271,6 @@
     <t>https://www.amazon.de/Original-GoolRC-Kompakt-Ladeger%C3%A4t-Quadrocopter/dp/B01HXMU27S/ref=sr_1_9?ie=UTF8&amp;qid=1507474749&amp;sr=8-9&amp;keywords=lipo+charger+3s</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/5-Stuck-2S-3S-4S-5S-6S-Balancer-Gehause-XH-Buchse-Balancerkabel-Stecker-Clip-/321356802593?var=&amp;hash=item4ad25baa21:m:mhVh2tkxxGA1wor0IZJwc5Q</t>
-  </si>
-  <si>
     <t>Suppo 2204/14</t>
   </si>
   <si>
@@ -456,13 +445,34 @@
     <t>Ladegerät 2</t>
   </si>
   <si>
-    <t>http://www.ebay.de/itm/DC-Boost-Modul-8-32V-auf-9-46V-150W-Netzteil-Converter-Step-up-Powersupply-Modul/302482938686?hash=item466d635b3e:g:rxkAAOSw62VZxNJ8</t>
-  </si>
-  <si>
     <t>Netzteil</t>
   </si>
   <si>
-    <t>Computernetzteil</t>
+    <t>https://www.ebay.de/itm/JST-XH-10pcs-3S1P-Balance-Charger-Cable-Wire-Connector-Male-Female-Plug/262885874665?hash=item3d35381be9:g:FaoAAOSwdGFYv7nj</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/Automatic-Boost-Buck-Converter-CC-CV-5-30V-To-1-25-30V-8A-12V-24V-Regulator-100W/271979697449?hash=item3f5340d529:g:SPMAAOSwHjNV7e78</t>
+  </si>
+  <si>
+    <t>stecker</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/DC-Buchse-fur-Hohlstecker-5-5-x-2-1-od-2-5mm-Einbaubuchse-Zentral-Front-einbau/191967812333?hash=item2cb22c5aed:m:mi1QaRnZJRxsepyxf8zTphw</t>
+  </si>
+  <si>
+    <t>Sensorenpaket</t>
+  </si>
+  <si>
+    <t>Zahlungen</t>
+  </si>
+  <si>
+    <t>Tim-&gt;iris</t>
+  </si>
+  <si>
+    <t>Iris-&gt;Paypal</t>
+  </si>
+  <si>
+    <t>Iris-&gt;Amazon</t>
   </si>
 </sst>
 </file>
@@ -475,7 +485,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,16 +508,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -515,13 +537,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -537,8 +575,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
@@ -870,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +933,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D39)</f>
-        <v>268.08000000000004</v>
+        <v>270.38000000000005</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E39)</f>
@@ -910,14 +950,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M2">
         <f>(F1*2)/4</f>
         <v>267.55</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -943,18 +983,18 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.8597014925373134</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
@@ -981,7 +1021,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10">
@@ -1066,12 +1106,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="A9" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -1093,7 +1133,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="10">
@@ -1112,8 +1152,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
+      <c r="A11" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -1132,8 +1172,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
+      <c r="A12" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -1152,8 +1192,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
+      <c r="A13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1176,14 +1216,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
+      <c r="A14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
@@ -1192,12 +1232,12 @@
         <v>2.9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>116</v>
+      <c r="A15" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -1216,31 +1256,31 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
+      <c r="A16" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6">
         <v>2.6</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
@@ -1249,18 +1289,18 @@
         <v>3.5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="6">
         <v>3.5</v>
@@ -1269,46 +1309,46 @@
         <v>3.5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A19" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6">
         <v>5.9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>80</v>
+      <c r="A20" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6">
         <v>10</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>125</v>
+      <c r="A21" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
@@ -1317,130 +1357,129 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A22" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" s="6">
         <v>10.59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>110</v>
+      <c r="A24" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6">
         <v>1.35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>128</v>
+      <c r="A26" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D26" s="6">
         <v>2.25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>140</v>
+      <c r="A27" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D27" s="6">
         <v>7</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,18 +1502,90 @@
     <hyperlink ref="H19" r:id="rId4"/>
     <hyperlink ref="H14" r:id="rId5"/>
     <hyperlink ref="H20" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H22" r:id="rId9"/>
-    <hyperlink ref="H23" r:id="rId10"/>
-    <hyperlink ref="H26" r:id="rId11"/>
-    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H22" r:id="rId8"/>
+    <hyperlink ref="H23" r:id="rId9"/>
+    <hyperlink ref="H25" r:id="rId10"/>
+    <hyperlink ref="H21" r:id="rId11"/>
+    <hyperlink ref="H27" r:id="rId12"/>
+    <hyperlink ref="H26" r:id="rId13"/>
+    <hyperlink ref="H28" r:id="rId14"/>
+    <hyperlink ref="H24" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>5.8</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1507,7 +1618,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1516,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1528,6 +1639,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="7">
+        <v>82.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="7">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7">
+        <v>134.16999999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(B3:B6)</f>
+        <v>290.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="7">
+        <v>42.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1554,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1571,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8">
         <v>10.4</v>
@@ -1591,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,10 +1783,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,12 +1805,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,10 +1832,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1671,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <f>(27+8)</f>
@@ -1687,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,33 +1873,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" display="https://www.amazon.de/Camera-Module-Adjustable-Resolution-Raspberry/dp/B06ZZQZT66/ref=sr_1_4?ie=UTF8&amp;qid=1507565270&amp;sr=8-4&amp;keywords=raspberry+camera+objektiv&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSE"/>
+    <hyperlink ref="H2"/>
     <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,13 +1929,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1771,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
         <v>15.7</v>
@@ -1797,7 +1972,7 @@
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -1831,7 +2006,7 @@
         <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1839,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -1863,7 +2038,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1935,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4">
         <v>42</v>
@@ -1961,7 +2136,7 @@
         <v>9.4674556213017755</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <v>26.29</v>
@@ -2041,11 +2216,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2202,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2233,10 +2408,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2250,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1">
         <v>12.5</v>
@@ -2268,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>18</v>
@@ -2294,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -2321,7 +2496,7 @@
         <v>11.842105263157896</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1">
         <v>15.5</v>
@@ -2387,23 +2562,23 @@
         <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2426,12 +2601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -2458,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="8">
         <v>10</v>
@@ -2481,7 +2656,7 @@
         <v>2204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8">
         <v>2.57</v>
@@ -2543,12 +2718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -2582,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8">
         <v>8</v>
@@ -2591,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,10 +2777,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2683,12 +2858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
@@ -2724,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2733,73 +2908,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>5.8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="Zahlungen" sheetId="12" r:id="rId2"/>
-    <sheet name="BMS" sheetId="11" r:id="rId3"/>
-    <sheet name="Kamera" sheetId="9" r:id="rId4"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
-    <sheet name="Propeller" sheetId="10" r:id="rId7"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId8"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId9"/>
-    <sheet name="ESC" sheetId="6" r:id="rId10"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId11"/>
+    <sheet name="BMS" sheetId="11" r:id="rId2"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId3"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId4"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId5"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId6"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId7"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId8"/>
+    <sheet name="ESC" sheetId="6" r:id="rId9"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId10"/>
+    <sheet name="Zahlungen" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
   <si>
     <t>Preis</t>
   </si>
@@ -295,15 +295,6 @@
     <t>https://www.amazon.de/niceeshop-Ublox-Aircraft-Flight-Controller/dp/B00S4RLICU/ref=sr_1_1?ie=UTF8&amp;qid=1507564538&amp;sr=8-1&amp;keywords=GY-GPS6MV2</t>
   </si>
   <si>
-    <t>Widerstände</t>
-  </si>
-  <si>
-    <t>Kkmoon</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/KKmoon-860pcs-Ohm-Widerst%C3%A4nde-Elektronikkomponenten/dp/B01HMBFQWG/ref=sr_1_4?s=ce-de&amp;ie=UTF8&amp;qid=1507564808&amp;sr=1-4&amp;keywords=widerst%C3%A4nde</t>
-  </si>
-  <si>
     <t>NEO-6M</t>
   </si>
   <si>
@@ -473,6 +464,12 @@
   </si>
   <si>
     <t>Iris-&gt;Amazon</t>
+  </si>
+  <si>
+    <t>(Vorauss.) Ankunft</t>
+  </si>
+  <si>
+    <t>Kamera-Kabel</t>
   </si>
 </sst>
 </file>
@@ -485,7 +482,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,8 +512,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,8 +532,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -552,14 +561,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -576,9 +597,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Gut" xfId="4" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
@@ -908,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +949,10 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -932,35 +960,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D39)</f>
-        <v>270.38000000000005</v>
+        <f>SUM(D4:D38)</f>
+        <v>279.08000000000004</v>
       </c>
       <c r="E1" s="2">
-        <f>SUM(E4:E39)</f>
+        <f>SUM(E4:E38)</f>
         <v>301.5</v>
       </c>
       <c r="F1" s="2">
-        <f>SUM(F4:F39)</f>
-        <v>535.1</v>
+        <f>SUM(F4:F38)</f>
+        <v>481.1</v>
       </c>
       <c r="G1" s="2">
-        <f>SUM(G4:G39)</f>
+        <f>SUM(G4:G38)</f>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2">
         <f>(F1*2)/4</f>
-        <v>267.55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>240.55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -982,610 +1011,610 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.8597014925373134</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'SD-Karte'!B2</f>
+        <v>Kingston</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'SD-Karte'!D2</f>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13">
+        <v>43032</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>ESC!B2</f>
+        <v>DYS DS20A</v>
+      </c>
+      <c r="D6" s="6">
+        <f>ESC!C2*B6</f>
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>ESC!D2*Drohne!B9</f>
+        <v>5.8</v>
+      </c>
+      <c r="H6" s="13">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="H7" s="13">
+        <v>43042</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="C8" t="str">
+        <f>Batterien!B2</f>
+        <v>Deans</v>
+      </c>
+      <c r="D8" s="6">
+        <f>Batterien!C2*B8</f>
+        <v>31.4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Batterien!E2</f>
+        <v>172.4</v>
+      </c>
+      <c r="G8" s="2">
+        <f>Batterien!D2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Propeller!B2</f>
+        <v>5x3</v>
+      </c>
+      <c r="D9" s="8">
+        <f>Propeller!C2</f>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Sensoren!B2</f>
+        <v xml:space="preserve">MPU9255 </v>
+      </c>
+      <c r="D10" s="8">
+        <f>Sensoren!C2</f>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f>Sensoren!D2</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Kamera!B2</f>
+        <v>RaspCam</v>
+      </c>
+      <c r="D11" s="8">
+        <f>Kamera!C2</f>
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <f>Kamera!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f>Kamera!D2</f>
+        <v>50</v>
+      </c>
+      <c r="H11" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="H12" s="13">
+        <v>43045</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>2.9</v>
+      </c>
+      <c r="H13" s="13">
+        <v>43046</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>43046</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="13">
+        <v>43046</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="H16" s="13">
+        <v>43046</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H17" s="13">
+        <v>43046</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10">
         <v>4</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C19" t="str">
         <f>Motoren!B2</f>
         <v>Emax Mt1006</v>
       </c>
-      <c r="D4" s="6">
-        <f>Motoren!C2*B4</f>
+      <c r="D19" s="6">
+        <f>Motoren!C2*B19</f>
         <v>50</v>
       </c>
-      <c r="E4">
-        <f>Motoren!D2*B4</f>
+      <c r="E19">
+        <f>Motoren!D2*B19</f>
         <v>300</v>
       </c>
-      <c r="F4">
+      <c r="F19">
         <f>Motoren!E2*Drohne!B4</f>
-        <v>72</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <f>Batterien!B2</f>
-        <v>Deans</v>
-      </c>
-      <c r="D5" s="6">
-        <f>Batterien!C2</f>
-        <v>15.7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <f>Batterien!E2</f>
-        <v>172.4</v>
-      </c>
-      <c r="G5" s="2">
-        <f>Batterien!D2</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <f>'SD-Karte'!B2</f>
-        <v>Kingston</v>
-      </c>
-      <c r="D7" s="6">
-        <f>'SD-Karte'!D2</f>
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10.59</v>
+      </c>
+      <c r="H21" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>BMS!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f>BMS!C2</f>
         <v>9</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="F22">
+        <f>BMS!D2</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="13">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H23" s="13">
+        <v>43089</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>43089</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" t="str">
-        <f>ESC!B2</f>
-        <v>DYS DS20A</v>
-      </c>
-      <c r="D9" s="6">
-        <f>ESC!C2*B9</f>
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>ESC!D2*Drohne!B9</f>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="str">
-        <f>Propeller!B2</f>
-        <v>5x3</v>
-      </c>
-      <c r="D10" s="8">
-        <f>Propeller!C2</f>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="6">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" t="str">
-        <f>Sensoren!B2</f>
-        <v xml:space="preserve">MPU9255 </v>
-      </c>
-      <c r="D11" s="8">
-        <f>Sensoren!C2</f>
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <f>Sensoren!D2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="H25" s="13">
+        <v>43089</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
         <f>Höhe!B2</f>
         <v>MPL3115A2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D26" s="8">
         <f>Höhe!C2</f>
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F26">
         <f>Höhe!D2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
-        <f>Kamera!B2</f>
-        <v>RaspCam</v>
-      </c>
-      <c r="D13" s="8">
-        <f>Kamera!C2</f>
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <f>Kamera!E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <f>Kamera!D2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>2.9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f>BMS!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <f>BMS!C2</f>
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <f>BMS!D2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>3.5</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="F18">
-        <v>3.5</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10.59</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="H26" s="13">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="6">
         <v>1.35</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>138</v>
+      <c r="H27" s="13">
+        <v>43096</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>141</v>
-      </c>
       <c r="D28" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-    </row>
   </sheetData>
+  <sortState ref="A4:I28">
+    <sortCondition ref="H4:H28"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1"/>
-    <hyperlink ref="H17" r:id="rId2"/>
-    <hyperlink ref="H18" r:id="rId3"/>
-    <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H14" r:id="rId5"/>
-    <hyperlink ref="H20" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
-    <hyperlink ref="H23" r:id="rId9"/>
-    <hyperlink ref="H25" r:id="rId10"/>
-    <hyperlink ref="H21" r:id="rId11"/>
-    <hyperlink ref="H27" r:id="rId12"/>
-    <hyperlink ref="H26" r:id="rId13"/>
-    <hyperlink ref="H28" r:id="rId14"/>
-    <hyperlink ref="H24" r:id="rId15"/>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId2"/>
+    <hyperlink ref="I15" r:id="rId3"/>
+    <hyperlink ref="I16" r:id="rId4"/>
+    <hyperlink ref="I13" r:id="rId5"/>
+    <hyperlink ref="I20" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="I21" r:id="rId8"/>
+    <hyperlink ref="I27" r:id="rId9"/>
+    <hyperlink ref="I23" r:id="rId10"/>
+    <hyperlink ref="I25" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="I17" r:id="rId13"/>
+    <hyperlink ref="I24" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>5.8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1618,7 +1647,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1627,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1638,11 +1667,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1650,12 +1679,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1">
         <v>270</v>
@@ -1663,7 +1692,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7">
         <v>82.52</v>
@@ -1671,7 +1700,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" s="7">
         <v>31.28</v>
@@ -1679,7 +1708,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="7">
         <v>134.16999999999999</v>
@@ -1691,7 +1720,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="7">
         <v>42.17</v>
@@ -1702,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1729,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1746,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>61</v>
@@ -1783,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1865,24 +1894,24 @@
         <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -1946,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4">
         <v>15.7</v>
@@ -1972,7 +2001,7 @@
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,7 +2406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2425,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1">
         <v>12.5</v>
@@ -2443,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2567,18 +2596,18 @@
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2633,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,7 +2685,7 @@
         <v>2204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2769,7 +2798,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2899,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2908,4 +2937,73 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>5.8</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>Preis</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Kamera-Kabel</t>
+  </si>
+  <si>
+    <t>Breadboards</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -939,7 +942,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +964,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>279.08000000000004</v>
+        <v>289.08000000000004</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -1077,7 +1080,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="10">
@@ -1123,185 +1126,173 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Sensoren!B2</f>
+        <v xml:space="preserve">MPU9255 </v>
+      </c>
+      <c r="D8" s="8">
+        <f>Sensoren!C2</f>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f>Sensoren!D2</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Kamera!B2</f>
+        <v>RaspCam</v>
+      </c>
+      <c r="D9" s="8">
+        <f>Kamera!C2</f>
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <f>Kamera!E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f>Kamera!D2</f>
+        <v>50</v>
+      </c>
+      <c r="H9" s="13">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="13">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C11" t="str">
         <f>Batterien!B2</f>
         <v>Deans</v>
       </c>
-      <c r="D8" s="6">
-        <f>Batterien!C2*B8</f>
+      <c r="D11" s="6">
+        <f>Batterien!C2*B11</f>
         <v>31.4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <f>Batterien!E2</f>
         <v>172.4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="2">
         <f>Batterien!D2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H11" s="13">
         <v>43043</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
         <f>Propeller!B2</f>
         <v>5x3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D12" s="8">
         <f>Propeller!C2</f>
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <v>43043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="str">
-        <f>Sensoren!B2</f>
-        <v xml:space="preserve">MPU9255 </v>
-      </c>
-      <c r="D10" s="8">
-        <f>Sensoren!C2</f>
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <f>Sensoren!D2</f>
-        <v>5</v>
-      </c>
-      <c r="H10" s="13">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" t="str">
-        <f>Kamera!B2</f>
-        <v>RaspCam</v>
-      </c>
-      <c r="D11" s="8">
-        <f>Kamera!C2</f>
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <f>Kamera!E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <f>Kamera!D2</f>
-        <v>50</v>
-      </c>
-      <c r="H11" s="13">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="H12" s="13">
-        <v>43045</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H13" s="13">
-        <v>43046</v>
+        <v>43045</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H14" s="13">
         <v>43046</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>3.5</v>
@@ -1310,276 +1301,296 @@
         <v>43046</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6">
-        <v>5.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <v>3.5</v>
       </c>
       <c r="H16" s="13">
         <v>43046</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6">
-        <v>2.2999999999999998</v>
+        <v>5.9</v>
       </c>
       <c r="H17" s="13">
         <v>43046</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>146</v>
+      <c r="A18" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H18" s="13">
         <v>43046</v>
       </c>
+      <c r="I18" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B20" s="10">
         <v>4</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f>Motoren!B2</f>
         <v>Emax Mt1006</v>
       </c>
-      <c r="D19" s="6">
-        <f>Motoren!C2*B19</f>
+      <c r="D20" s="6">
+        <f>Motoren!C2*B20</f>
         <v>50</v>
       </c>
-      <c r="E19">
-        <f>Motoren!D2*B19</f>
+      <c r="E20">
+        <f>Motoren!D2*B20</f>
         <v>300</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f>Motoren!E2*Drohne!B4</f>
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>43071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" s="13">
         <v>43071</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D21" s="6">
-        <v>10.59</v>
+        <v>10</v>
       </c>
       <c r="H21" s="13">
         <v>43071</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10.59</v>
+      </c>
+      <c r="H22" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <f>BMS!B2</f>
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f>BMS!C2</f>
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <f>BMS!D2</f>
         <v>10</v>
       </c>
-      <c r="H22" s="13">
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4.1900000000000004</v>
-      </c>
       <c r="H23" s="13">
         <v>43089</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H24" s="13">
         <v>43089</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D25" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H25" s="13">
         <v>43089</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43089</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
         <f>Höhe!B2</f>
         <v>MPL3115A2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f>Höhe!C2</f>
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f>Höhe!D2</f>
         <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>43096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.35</v>
       </c>
       <c r="H27" s="13">
         <v>43096</v>
       </c>
-      <c r="I27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="H28" s="13">
+        <v>43096</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>200</v>
       </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
@@ -1591,24 +1602,24 @@
       <c r="D32" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A4:I28">
-    <sortCondition ref="H4:H28"/>
+  <sortState ref="A4:I30">
+    <sortCondition ref="H4:H30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1"/>
-    <hyperlink ref="I14" r:id="rId2"/>
-    <hyperlink ref="I15" r:id="rId3"/>
-    <hyperlink ref="I16" r:id="rId4"/>
-    <hyperlink ref="I13" r:id="rId5"/>
-    <hyperlink ref="I20" r:id="rId6"/>
+    <hyperlink ref="I13" r:id="rId1"/>
+    <hyperlink ref="I15" r:id="rId2"/>
+    <hyperlink ref="I16" r:id="rId3"/>
+    <hyperlink ref="I17" r:id="rId4"/>
+    <hyperlink ref="I14" r:id="rId5"/>
+    <hyperlink ref="I21" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I21" r:id="rId8"/>
-    <hyperlink ref="I27" r:id="rId9"/>
-    <hyperlink ref="I23" r:id="rId10"/>
-    <hyperlink ref="I25" r:id="rId11"/>
+    <hyperlink ref="I22" r:id="rId8"/>
+    <hyperlink ref="I28" r:id="rId9"/>
+    <hyperlink ref="I24" r:id="rId10"/>
+    <hyperlink ref="I26" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="I17" r:id="rId13"/>
-    <hyperlink ref="I24" r:id="rId14"/>
+    <hyperlink ref="I18" r:id="rId13"/>
+    <hyperlink ref="I25" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1839,7 +1850,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1927,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2"/>
+    <hyperlink ref="H2" display="https://www.amazon.de/Camera-Module-Adjustable-Resolution-Raspberry/dp/B06ZZQZT66/ref=sr_1_4?ie=UTF8&amp;qid=1507565270&amp;sr=8-4&amp;keywords=raspberry+camera+objektiv&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSE"/>
     <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +589,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,6 +612,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -941,21 +949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -980,7 +988,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>140</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
@@ -1216,8 +1224,8 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="10">
@@ -1238,150 +1246,150 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F13">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="13">
+        <v>43043</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D15" s="6">
         <v>2.6</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H15" s="13">
         <v>43045</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>2.9</v>
-      </c>
-      <c r="H14" s="13">
-        <v>43046</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>3.5</v>
-      </c>
-      <c r="H15" s="13">
-        <v>43046</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
-        <v>3.5</v>
       </c>
       <c r="H16" s="13">
         <v>43046</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6">
-        <v>5.9</v>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>3.5</v>
       </c>
       <c r="H17" s="13">
         <v>43046</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6">
-        <v>2.2999999999999998</v>
+        <v>5.9</v>
       </c>
       <c r="H18" s="13">
         <v>43046</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>146</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H19" s="13">
         <v>43046</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>43071</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>77</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>133</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>108</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
@@ -1592,13 +1600,13 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
     </row>
   </sheetData>
@@ -1606,11 +1614,11 @@
     <sortCondition ref="H4:H30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1"/>
-    <hyperlink ref="I15" r:id="rId2"/>
-    <hyperlink ref="I16" r:id="rId3"/>
-    <hyperlink ref="I17" r:id="rId4"/>
-    <hyperlink ref="I14" r:id="rId5"/>
+    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="I17" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I18" r:id="rId4"/>
+    <hyperlink ref="I16" r:id="rId5"/>
     <hyperlink ref="I21" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
     <hyperlink ref="I22" r:id="rId8"/>
@@ -1618,7 +1626,7 @@
     <hyperlink ref="I24" r:id="rId10"/>
     <hyperlink ref="I26" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="I18" r:id="rId13"/>
+    <hyperlink ref="I19" r:id="rId13"/>
     <hyperlink ref="I25" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,13 +1641,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1686,14 +1694,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1729,7 +1737,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1750,12 +1758,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1792,7 +1800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1812,7 +1820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1853,9 +1861,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -1942,14 +1950,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2145,7 +2153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2179,7 +2187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2221,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2232,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2243,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2254,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2266,138 +2274,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2425,13 +2433,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2512,7 +2520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2559,7 +2567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2649,9 +2657,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2713,37 +2721,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2766,13 +2774,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2812,7 +2820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2823,70 +2831,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2906,9 +2914,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2958,12 +2966,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2986,7 +2994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,7 +583,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -608,12 +602,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -950,20 +941,20 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -988,7 +979,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1000,7 +991,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1036,7 +1027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1052,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1087,8 +1078,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10">
@@ -1113,8 +1104,8 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="10">
@@ -1133,8 +1124,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B8" s="10">
@@ -1156,7 +1147,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1183,7 +1174,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1194,96 +1185,96 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Propeller!B2</f>
+        <v>5x3</v>
+      </c>
+      <c r="D11" s="8">
+        <f>Propeller!C2</f>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="13">
+        <v>43043</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C14" t="str">
         <f>Batterien!B2</f>
         <v>Deans</v>
       </c>
-      <c r="D11" s="6">
-        <f>Batterien!C2*B11</f>
+      <c r="D14" s="6">
+        <f>Batterien!C2*B14</f>
         <v>31.4</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <f>Batterien!E2</f>
         <v>172.4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G14" s="2">
         <f>Batterien!D2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H11" s="13">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
-        <f>Propeller!B2</f>
-        <v>5x3</v>
-      </c>
-      <c r="D12" s="8">
-        <f>Propeller!C2</f>
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="F13">
-        <v>3.5</v>
-      </c>
-      <c r="H13" s="13">
-        <v>43043</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
       <c r="H14" s="13">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>63</v>
       </c>
@@ -1303,7 +1294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
@@ -1326,7 +1317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>66</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
@@ -1369,7 +1360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>135</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1410,7 @@
         <v>43071</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>77</v>
       </c>
@@ -1439,7 +1430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>86</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
@@ -1482,7 +1473,7 @@
         <v>43089</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
@@ -1499,7 +1490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
@@ -1519,7 +1510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>133</v>
       </c>
@@ -1539,7 +1530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
@@ -1562,8 +1553,8 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="10">
@@ -1582,8 +1573,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="10">
@@ -1600,13 +1591,13 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
   </sheetData>
@@ -1616,7 +1607,7 @@
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1"/>
     <hyperlink ref="I17" r:id="rId2"/>
-    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I18" r:id="rId4"/>
     <hyperlink ref="I16" r:id="rId5"/>
     <hyperlink ref="I21" r:id="rId6"/>
@@ -1641,13 +1632,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1694,14 +1685,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1709,7 +1700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1717,7 +1708,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1725,7 +1716,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1737,7 +1728,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1758,12 +1749,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1800,7 +1791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1820,7 +1811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1837,7 +1828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1861,9 +1852,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1916,7 +1907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -1950,14 +1941,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2023,7 +2014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2057,7 +2048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2089,7 +2080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2121,7 +2112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2153,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2187,7 +2178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2229,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2240,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2251,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2262,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2274,138 +2265,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2433,13 +2424,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2494,7 +2485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2547,7 +2538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2567,7 +2558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2587,7 +2578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2613,7 +2604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2621,7 +2612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2657,9 +2648,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2676,7 +2667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2690,7 +2681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2707,7 +2698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2721,37 +2712,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2774,13 +2765,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2820,7 +2811,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2831,70 +2822,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2914,9 +2905,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2933,7 +2924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2966,12 +2957,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2994,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3014,7 +3005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -941,7 +941,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>289.08000000000004</v>
+        <v>289.08</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="10">
@@ -1288,206 +1288,206 @@
         <v>2.6</v>
       </c>
       <c r="H15" s="13">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>34</v>
+      <c r="A16" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="13">
         <v>43046</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>66</v>
+      <c r="A17" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="H17" s="13">
         <v>43046</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>73</v>
+      <c r="A18" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" s="6">
-        <v>5.9</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H18" s="13">
         <v>43046</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2.9</v>
+      </c>
+      <c r="H19" s="13">
+        <v>43047</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H19" s="13">
-        <v>43046</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H20" s="13">
+        <v>43047</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C21" t="str">
         <f>Motoren!B2</f>
         <v>Emax Mt1006</v>
       </c>
-      <c r="D20" s="6">
-        <f>Motoren!C2*B20</f>
+      <c r="D21" s="6">
+        <f>Motoren!C2*B21</f>
         <v>50</v>
       </c>
-      <c r="E20">
-        <f>Motoren!D2*B20</f>
+      <c r="E21">
+        <f>Motoren!D2*B21</f>
         <v>300</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <f>Motoren!E2*Drohne!B4</f>
         <v>18</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <v>43071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10</v>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" s="13">
         <v>43071</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6">
-        <v>10.59</v>
+        <v>10</v>
       </c>
       <c r="H22" s="13">
         <v>43071</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10.59</v>
+      </c>
+      <c r="H23" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <f>BMS!B2</f>
         <v>0</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f>BMS!C2</f>
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f>BMS!D2</f>
         <v>10</v>
       </c>
-      <c r="H23" s="13">
-        <v>43089</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>4.1900000000000004</v>
-      </c>
       <c r="H24" s="13">
         <v>43089</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,18 +1606,18 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1"/>
-    <hyperlink ref="I17" r:id="rId2"/>
+    <hyperlink ref="I16" r:id="rId2"/>
     <hyperlink ref="I12" r:id="rId3"/>
-    <hyperlink ref="I18" r:id="rId4"/>
-    <hyperlink ref="I16" r:id="rId5"/>
-    <hyperlink ref="I21" r:id="rId6"/>
+    <hyperlink ref="I17" r:id="rId4"/>
+    <hyperlink ref="I19" r:id="rId5"/>
+    <hyperlink ref="I22" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I22" r:id="rId8"/>
+    <hyperlink ref="I23" r:id="rId8"/>
     <hyperlink ref="I28" r:id="rId9"/>
-    <hyperlink ref="I24" r:id="rId10"/>
+    <hyperlink ref="I18" r:id="rId10"/>
     <hyperlink ref="I26" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="I19" r:id="rId13"/>
+    <hyperlink ref="I20" r:id="rId13"/>
     <hyperlink ref="I25" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -941,7 +941,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,136 +1398,136 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>BMS!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <f>BMS!C2</f>
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <f>BMS!D2</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="13">
+        <v>43050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>43050</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13">
+        <v>43050</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B24" s="10">
         <v>4</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C24" t="str">
         <f>Motoren!B2</f>
         <v>Emax Mt1006</v>
       </c>
-      <c r="D21" s="6">
-        <f>Motoren!C2*B21</f>
+      <c r="D24" s="6">
+        <f>Motoren!C2*B24</f>
         <v>50</v>
       </c>
-      <c r="E21">
-        <f>Motoren!D2*B21</f>
+      <c r="E24">
+        <f>Motoren!D2*B24</f>
         <v>300</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <f>Motoren!E2*Drohne!B4</f>
         <v>18</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
         <v>43071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
-      <c r="H22" s="13">
-        <v>43071</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10.59</v>
-      </c>
-      <c r="H23" s="13">
-        <v>43071</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f>BMS!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <f>BMS!C2</f>
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <f>BMS!D2</f>
-        <v>10</v>
-      </c>
-      <c r="H24" s="13">
-        <v>43089</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H25" s="13">
-        <v>43089</v>
+        <v>43071</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D26" s="6">
-        <v>7</v>
+        <v>10.59</v>
       </c>
       <c r="H26" s="13">
-        <v>43089</v>
+        <v>43071</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,15 +1610,15 @@
     <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I17" r:id="rId4"/>
     <hyperlink ref="I19" r:id="rId5"/>
-    <hyperlink ref="I22" r:id="rId6"/>
+    <hyperlink ref="I25" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I23" r:id="rId8"/>
+    <hyperlink ref="I26" r:id="rId8"/>
     <hyperlink ref="I28" r:id="rId9"/>
     <hyperlink ref="I18" r:id="rId10"/>
-    <hyperlink ref="I26" r:id="rId11"/>
+    <hyperlink ref="I23" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
     <hyperlink ref="I20" r:id="rId13"/>
-    <hyperlink ref="I25" r:id="rId14"/>
+    <hyperlink ref="I22" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t>Preis</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>Breadboards</t>
+  </si>
+  <si>
+    <t>Helfende Hand</t>
+  </si>
+  <si>
+    <t>Babymax</t>
+  </si>
+  <si>
+    <t>Lot (Flüssig)</t>
+  </si>
+  <si>
+    <t>CFH Elekroniklot</t>
+  </si>
+  <si>
+    <t>Lötkolben set</t>
+  </si>
+  <si>
+    <t>Soldering Iron</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +556,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +613,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -602,9 +632,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -940,21 +977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -963,7 +1000,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>289.08</v>
+        <v>337.40999999999997</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -979,7 +1016,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -991,7 +1028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1089,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1078,8 +1115,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10">
@@ -1104,8 +1141,8 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="10">
@@ -1124,8 +1161,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B8" s="10">
@@ -1147,7 +1184,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1211,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1185,7 +1222,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1244,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1230,7 +1267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1244,7 +1281,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1311,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1294,7 +1331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1317,7 +1354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1337,7 +1374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1354,7 +1391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1377,7 +1414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1397,7 +1434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1420,7 +1457,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1440,7 +1477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1460,8 +1497,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="10">
@@ -1487,122 +1524,164 @@
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <v>43071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>77</v>
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
-      <c r="H25" s="13">
-        <v>43071</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10.59</v>
-      </c>
-      <c r="H26" s="13">
-        <v>43071</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="C25" t="str">
         <f>Höhe!B2</f>
         <v>MPL3115A2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D25" s="8">
         <f>Höhe!C2</f>
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="F25">
         <f>Höhe!D2</f>
         <v>1</v>
       </c>
+      <c r="H25" s="13">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43053</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.33</v>
+      </c>
       <c r="H27" s="13">
-        <v>43096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="10">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D28" s="6">
-        <v>1.35</v>
+        <v>30</v>
       </c>
       <c r="H28" s="13">
-        <v>43096</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+        <v>43055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="6">
+        <v>15</v>
+      </c>
+      <c r="H29" s="13">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="6">
+        <v>10</v>
+      </c>
+      <c r="H30" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10.59</v>
+      </c>
+      <c r="H31" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>200</v>
       </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
+      <c r="H32" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:I30">
-    <sortCondition ref="H4:H30"/>
+  <sortState ref="A4:I32">
+    <sortCondition ref="H4:H32"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1"/>
@@ -1610,10 +1689,10 @@
     <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I17" r:id="rId4"/>
     <hyperlink ref="I19" r:id="rId5"/>
-    <hyperlink ref="I25" r:id="rId6"/>
+    <hyperlink ref="I30" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I26" r:id="rId8"/>
-    <hyperlink ref="I28" r:id="rId9"/>
+    <hyperlink ref="I31" r:id="rId8"/>
+    <hyperlink ref="I26" r:id="rId9"/>
     <hyperlink ref="I18" r:id="rId10"/>
     <hyperlink ref="I23" r:id="rId11"/>
     <hyperlink ref="I7" r:id="rId12"/>
@@ -1632,13 +1711,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1685,14 +1764,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1700,7 +1779,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1708,7 +1787,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1716,7 +1795,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1728,7 +1807,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1749,12 +1828,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1774,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1791,7 +1870,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1811,7 +1890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1828,7 +1907,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1852,9 +1931,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1907,7 +1986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -1941,14 +2020,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +2059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2014,7 +2093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2048,7 +2127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2080,7 +2159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2112,7 +2191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2144,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2178,7 +2257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2209,7 +2288,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2220,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2231,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2242,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2253,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2265,138 +2344,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2424,13 +2503,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2485,7 +2564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2511,7 +2590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2538,7 +2617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2558,7 +2637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2578,7 +2657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2604,7 +2683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2612,7 +2691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2648,9 +2727,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2681,7 +2760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2698,7 +2777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2712,37 +2791,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2765,13 +2844,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2791,7 +2870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2811,7 +2890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2822,70 +2901,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2905,9 +2984,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2924,7 +3003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2957,12 +3036,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2985,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3005,7 +3084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,20 +558,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -594,17 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -613,7 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -633,14 +610,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -978,20 +951,20 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +989,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1028,7 +1001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1062,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1088,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1141,7 +1114,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1161,7 +1134,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1184,7 +1157,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1184,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1222,7 +1195,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1244,7 +1217,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1267,7 +1240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1281,7 +1254,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1284,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1331,7 +1304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1354,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1374,7 +1347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1391,7 +1364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1414,7 +1387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1434,7 +1407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1457,7 +1430,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1477,7 +1450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1497,8 +1470,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="10">
@@ -1527,8 +1500,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="10">
@@ -1550,8 +1523,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B26" s="10">
@@ -1570,11 +1543,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1587,11 +1560,11 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1604,8 +1577,8 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B29" s="10">
@@ -1621,8 +1594,8 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="10">
@@ -1641,8 +1614,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="10">
@@ -1661,8 +1634,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="10">
@@ -1711,13 +1684,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1764,14 +1737,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1779,7 +1752,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1787,7 +1760,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1795,7 +1768,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1807,7 +1780,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1828,12 +1801,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +1826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1870,7 +1843,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1890,7 +1863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1907,7 +1880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1931,9 +1904,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +1932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1986,7 +1959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2020,14 +1993,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2093,7 +2066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2127,7 +2100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2159,7 +2132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2191,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2223,7 +2196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2257,7 +2230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2288,7 +2261,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2299,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2310,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2321,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2332,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2344,138 +2317,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2503,13 +2476,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2564,7 +2537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2590,7 +2563,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2617,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2637,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2657,7 +2630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2683,7 +2656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2691,7 +2664,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2727,9 +2700,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2760,7 +2733,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2777,7 +2750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2791,37 +2764,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2844,13 +2817,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2870,7 +2843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2890,7 +2863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2901,70 +2874,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2984,9 +2957,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3003,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3036,12 +3009,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3064,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3084,7 +3057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="15">
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="15">
@@ -1578,40 +1578,40 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>148</v>
+      <c r="A29" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H29" s="13">
-        <v>43059</v>
+        <v>43055</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="13">
-        <v>43071</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>79</v>
+        <v>43059</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
     <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I17" r:id="rId4"/>
     <hyperlink ref="I19" r:id="rId5"/>
-    <hyperlink ref="I30" r:id="rId6"/>
+    <hyperlink ref="I29" r:id="rId6"/>
     <hyperlink ref="I5" r:id="rId7"/>
     <hyperlink ref="I31" r:id="rId8"/>
     <hyperlink ref="I26" r:id="rId9"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,8 +619,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -951,20 +957,20 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -989,7 +995,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1597,8 +1603,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B30" s="10">
@@ -1611,11 +1617,11 @@
         <v>15</v>
       </c>
       <c r="H30" s="13">
-        <v>43059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+        <v>43056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="10">
@@ -1628,14 +1634,14 @@
         <v>10.59</v>
       </c>
       <c r="H31" s="13">
-        <v>43071</v>
+        <v>43057</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="10">
@@ -1684,13 +1690,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1737,14 +1743,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1801,12 +1807,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1904,9 +1910,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -1993,14 +1999,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2272,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2294,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2317,138 +2323,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2476,13 +2482,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2700,9 +2706,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2764,37 +2770,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2817,13 +2823,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2874,70 +2880,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2957,9 +2963,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3009,12 +3015,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -596,7 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -620,7 +614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -957,20 +950,20 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -995,7 +988,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1007,7 +1000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1061,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1113,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1140,7 +1133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1163,7 +1156,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1223,7 +1216,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1246,7 +1239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1260,7 +1253,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1283,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1310,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1353,7 +1346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1370,7 +1363,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1393,7 +1386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1413,7 +1406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1436,7 +1429,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1476,7 +1469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1549,7 +1542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1566,7 +1559,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1583,7 +1576,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1603,8 +1596,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B30" s="10">
@@ -1620,8 +1613,8 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="10">
@@ -1640,7 +1633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
@@ -1690,13 +1683,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1713,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1743,14 +1736,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1766,7 +1759,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1786,7 +1779,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1807,12 +1800,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1832,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1849,7 +1842,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1869,7 +1862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1886,7 +1879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1910,9 +1903,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1965,7 +1958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -1999,14 +1992,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2202,7 +2195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2236,7 +2229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2267,7 +2260,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2278,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2289,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2300,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2311,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2323,138 +2316,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2482,13 +2475,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2517,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2543,7 +2536,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2569,7 +2562,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2596,7 +2589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2636,7 +2629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2662,7 +2655,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2670,7 +2663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2706,9 +2699,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2739,7 +2732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2770,37 +2763,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2823,13 +2816,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2849,7 +2842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2869,7 +2862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2880,70 +2873,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -2963,9 +2956,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2982,7 +2975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3015,12 +3008,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3063,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>Preis</t>
   </si>
@@ -491,6 +491,18 @@
   </si>
   <si>
     <t>Soldering Iron</t>
+  </si>
+  <si>
+    <t>Widerstände</t>
+  </si>
+  <si>
+    <t>860stück</t>
+  </si>
+  <si>
+    <t>Platine</t>
+  </si>
+  <si>
+    <t>5 16*10cm</t>
   </si>
 </sst>
 </file>
@@ -947,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +984,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>337.40999999999997</v>
+        <v>355.98999999999995</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -1118,13 +1130,14 @@
         <v>121</v>
       </c>
       <c r="B7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="6">
-        <v>2.25</v>
+        <f>2.25*B7</f>
+        <v>4.5</v>
       </c>
       <c r="H7" s="13">
         <v>43042</v>
@@ -1650,6 +1663,49 @@
         <v>200</v>
       </c>
       <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="7">
+        <v>6.33</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>43073</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A4:I32">

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1688,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B34" s="15">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>43073</v>
+        <v>43071</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" display="https://www.amazon.de/Camera-Module-Adjustable-Resolution-Raspberry/dp/B06ZZQZT66/ref=sr_1_4?ie=UTF8&amp;qid=1507565270&amp;sr=8-4&amp;keywords=raspberry+camera+objektiv&amp;source=googleps&amp;gclid=Cj0KCQjw09zOBRCqARIsAH8XF1ahHItGgMKdz5xWeMClvluGlh4pWk087iGsZZRHqX6UfwahXSE"/>
+    <hyperlink ref="H2"/>
     <hyperlink ref="H3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="164">
   <si>
     <t>Preis</t>
   </si>
@@ -503,6 +503,24 @@
   </si>
   <si>
     <t>5 16*10cm</t>
+  </si>
+  <si>
+    <t>GPS 2</t>
+  </si>
+  <si>
+    <t>Ultraschall</t>
+  </si>
+  <si>
+    <t>BMP180</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/252715059842</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/162571876188</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/162675931015</t>
   </si>
 </sst>
 </file>
@@ -959,23 +977,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -984,7 +1002,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>355.98999999999995</v>
+        <v>373.72999999999996</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -1000,7 +1018,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1169,7 +1187,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1247,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1419,7 +1437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1530,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1572,7 +1590,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1609,7 +1627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1646,7 +1664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
@@ -1664,7 +1682,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>154</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>156</v>
       </c>
@@ -1705,6 +1723,66 @@
       </c>
       <c r="H34" s="13">
         <v>43071</v>
+      </c>
+      <c r="I34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="6">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13">
+        <v>43081</v>
+      </c>
+      <c r="I35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2.85</v>
+      </c>
+      <c r="H36" s="13">
+        <v>43081</v>
+      </c>
+      <c r="I36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3.89</v>
+      </c>
+      <c r="H37" s="13">
+        <v>43080</v>
+      </c>
+      <c r="I37" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1739,13 +1817,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1792,14 +1870,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1807,7 +1885,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1815,7 +1893,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1823,7 +1901,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1835,7 +1913,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1856,12 +1934,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1898,7 +1976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1918,7 +1996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -1935,7 +2013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -1959,9 +2037,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +2065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2014,7 +2092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2048,14 +2126,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2121,7 +2199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2155,7 +2233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2187,7 +2265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2219,7 +2297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2251,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2285,7 +2363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2316,7 +2394,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2327,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2338,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2349,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2360,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2372,138 +2450,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2531,13 +2609,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2566,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2592,7 +2670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2618,7 +2696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2645,7 +2723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2665,7 +2743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2685,7 +2763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2711,7 +2789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2719,7 +2797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2755,9 +2833,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2788,7 +2866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2805,7 +2883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2819,37 +2897,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2872,13 +2950,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2898,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2918,7 +2996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -2929,70 +3007,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3012,9 +3090,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3031,7 +3109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3064,12 +3142,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3092,7 +3170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3112,7 +3190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -980,20 +980,20 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>154</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>156</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>158</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>11</v>
       </c>
       <c r="H35" s="13">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="I35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>159</v>
       </c>
@@ -1759,13 +1759,13 @@
         <v>2.85</v>
       </c>
       <c r="H36" s="13">
-        <v>43081</v>
+        <v>43080</v>
       </c>
       <c r="I36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>3.89</v>
       </c>
       <c r="H37" s="13">
-        <v>43080</v>
+        <v>43077</v>
       </c>
       <c r="I37" t="s">
         <v>163</v>
@@ -1817,13 +1817,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1870,14 +1870,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1934,12 +1934,12 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2037,9 +2037,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2126,14 +2126,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2450,138 +2450,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2609,13 +2609,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2833,9 +2833,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2897,37 +2897,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2950,13 +2950,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3007,70 +3007,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3090,9 +3090,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3142,12 +3142,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,64 +1665,63 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
+      <c r="A32" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>200</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13">
+        <v>43071</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>154</v>
+      <c r="A33" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="15">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="7">
-        <v>6.33</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3.89</v>
       </c>
       <c r="H33" s="13">
         <v>43077</v>
       </c>
+      <c r="I33" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="D34" s="6">
+        <v>11</v>
       </c>
       <c r="H34" s="13">
-        <v>43071</v>
+        <v>43080</v>
       </c>
       <c r="I34" t="s">
         <v>161</v>
@@ -1730,64 +1729,65 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
       <c r="D35" s="6">
-        <v>11</v>
+        <v>2.85</v>
       </c>
       <c r="H35" s="13">
         <v>43080</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B36" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
-        <v>2.85</v>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6.33</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="H36" s="13">
-        <v>43080</v>
-      </c>
-      <c r="I36" t="s">
-        <v>162</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="15">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>160</v>
+      <c r="A37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
       </c>
       <c r="D37" s="6">
-        <v>3.89</v>
-      </c>
-      <c r="H37" s="13">
-        <v>43077</v>
-      </c>
-      <c r="I37" t="s">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+      <c r="H37" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:I32">
-    <sortCondition ref="H4:H32"/>
+  <sortState ref="A5:I37">
+    <sortCondition ref="H5:H37"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="165">
   <si>
     <t>Preis</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>https://www.ebay.de/itm/162675931015</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Ublox-Neo-6m-GPS-Modul-Flightcontroller-GY-GPS6MV2-UART-Arduino-Raspberry/162571876188?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1706,7 @@
       <c r="H33" s="13">
         <v>43077</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1723,8 +1726,8 @@
       <c r="H34" s="13">
         <v>43080</v>
       </c>
-      <c r="I34" t="s">
-        <v>161</v>
+      <c r="I34" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,6 +1807,8 @@
     <hyperlink ref="I7" r:id="rId12"/>
     <hyperlink ref="I20" r:id="rId13"/>
     <hyperlink ref="I22" r:id="rId14"/>
+    <hyperlink ref="I33" r:id="rId15"/>
+    <hyperlink ref="I34" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1931,7 +1936,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -517,13 +517,13 @@
     <t>https://www.ebay.de/itm/252715059842</t>
   </si>
   <si>
-    <t>https://www.ebay.de/itm/162571876188</t>
-  </si>
-  <si>
     <t>https://www.ebay.de/itm/162675931015</t>
   </si>
   <si>
     <t>https://www.ebay.de/itm/Ublox-Neo-6m-GPS-Modul-Flightcontroller-GY-GPS6MV2-UART-Arduino-Raspberry/162571876188?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/HC-SR04-Ultraschall-Sensor-Modul-Entfernungsmesser-Arduino-Raspberry-Pi/252715059842?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,7 @@
         <v>43077</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>43080</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,8 +1743,8 @@
       <c r="H35" s="13">
         <v>43080</v>
       </c>
-      <c r="I35" t="s">
-        <v>162</v>
+      <c r="I35" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1809,6 +1809,7 @@
     <hyperlink ref="I22" r:id="rId14"/>
     <hyperlink ref="I33" r:id="rId15"/>
     <hyperlink ref="I34" r:id="rId16"/>
+    <hyperlink ref="I35" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
   <si>
     <t>Preis</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>https://www.ebay.de/itm/HC-SR04-Ultraschall-Sensor-Modul-Entfernungsmesser-Arduino-Raspberry-Pi/252715059842?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Raspberry-Pi-Official-Desktop-Starter/dp/B01CI5879A/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
+  </si>
+  <si>
+    <t>Schutzkappen</t>
+  </si>
+  <si>
+    <t>jst-xh 3s kopfschutz</t>
   </si>
 </sst>
 </file>
@@ -574,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,7 +641,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -647,6 +665,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -980,23 +999,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1024,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D38)</f>
-        <v>373.72999999999996</v>
+        <v>424.72999999999996</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E38)</f>
@@ -1021,7 +1040,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1033,7 +1052,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1113,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1165,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1167,7 +1186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1190,7 +1209,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1273,7 +1292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1336,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1380,7 +1399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1397,7 +1416,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1440,7 +1459,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1483,7 +1502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1503,7 +1522,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1552,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1576,7 +1595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1593,7 +1612,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1610,7 +1629,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1647,7 +1666,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1667,7 +1686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1690,7 +1709,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1710,7 +1729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1730,7 +1749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1787,6 +1806,40 @@
         <v>200</v>
       </c>
       <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>51</v>
+      </c>
+      <c r="H38" s="13">
+        <v>43105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="H39" s="13">
+        <v>43164</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A5:I37">
@@ -1823,13 +1876,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1876,14 +1929,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1891,7 +1944,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1899,7 +1952,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1907,7 +1960,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1919,7 +1972,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1940,12 +1993,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -1982,7 +2035,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2002,7 +2055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2019,7 +2072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2043,9 +2096,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2071,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2098,7 +2151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2132,14 +2185,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2171,7 +2224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2205,7 +2258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2239,7 +2292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2271,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2303,7 +2356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2335,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2369,7 +2422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2400,7 +2453,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2411,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2422,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2433,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2444,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2456,138 +2509,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2615,13 +2668,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2650,7 +2703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2676,7 +2729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2702,7 +2755,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2729,7 +2782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2749,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2769,7 +2822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2795,7 +2848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2803,7 +2856,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2839,9 +2892,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2858,7 +2911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2872,7 +2925,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2889,7 +2942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2903,37 +2956,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -2956,13 +3009,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2982,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3002,7 +3055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3013,70 +3066,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3096,9 +3149,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3115,7 +3168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3148,12 +3201,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3196,7 +3249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
   <si>
     <t>Preis</t>
   </si>
@@ -526,16 +526,28 @@
     <t>https://www.ebay.de/itm/HC-SR04-Ultraschall-Sensor-Modul-Entfernungsmesser-Arduino-Raspberry-Pi/252715059842?ssPageName=STRK%3AMEBIDX%3AIT&amp;_trksid=p2057872.m2749.l2649</t>
   </si>
   <si>
-    <t>Raspberry Pi 3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Raspberry-Pi-Official-Desktop-Starter/dp/B01CI5879A/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
-  </si>
-  <si>
     <t>Schutzkappen</t>
   </si>
   <si>
     <t>jst-xh 3s kopfschutz</t>
+  </si>
+  <si>
+    <t>Raspberry PI 3</t>
+  </si>
+  <si>
+    <t>Model B+</t>
+  </si>
+  <si>
+    <t>Gehäuse</t>
+  </si>
+  <si>
+    <t>Raspberry PI</t>
+  </si>
+  <si>
+    <t>Micro SD</t>
+  </si>
+  <si>
+    <t>Sandisk 16GB</t>
   </si>
 </sst>
 </file>
@@ -999,23 +1011,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1023,24 +1035,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D38)</f>
-        <v>424.72999999999996</v>
+        <f>SUM(D4:D37)</f>
+        <v>373.72999999999996</v>
       </c>
       <c r="E1" s="2">
-        <f>SUM(E4:E38)</f>
+        <f>SUM(E4:E37)</f>
         <v>301.5</v>
       </c>
       <c r="F1" s="2">
-        <f>SUM(F4:F38)</f>
+        <f>SUM(F4:F37)</f>
         <v>481.1</v>
       </c>
       <c r="G1" s="2">
-        <f>SUM(G4:G38)</f>
+        <f>SUM(G4:G37)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1807,25 +1819,25 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B38" s="15">
         <v>1</v>
       </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
       <c r="D38" s="6">
-        <v>51</v>
+        <v>2.35</v>
       </c>
       <c r="H38" s="13">
-        <v>43105</v>
-      </c>
-      <c r="I38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="15">
@@ -1835,10 +1847,44 @@
         <v>168</v>
       </c>
       <c r="D39" s="6">
-        <v>2.35</v>
+        <v>38</v>
       </c>
       <c r="H39" s="13">
-        <v>43164</v>
+        <v>43113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="H40" s="13">
+        <v>43113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="H41" s="13">
+        <v>43113</v>
       </c>
     </row>
   </sheetData>
@@ -1876,13 +1922,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1899,7 +1945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1929,14 +1975,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1944,7 +1990,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1952,7 +1998,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -1972,7 +2018,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1993,12 +2039,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2018,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2035,7 +2081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2055,7 +2101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2072,7 +2118,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2096,9 +2142,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2151,7 +2197,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2185,14 +2231,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2258,7 +2304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2292,7 +2338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2324,7 +2370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2356,7 +2402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2388,7 +2434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2422,7 +2468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2453,7 +2499,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2464,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2475,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2486,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2497,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2509,138 +2555,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2668,13 +2714,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2703,7 +2749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2729,7 +2775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2755,7 +2801,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2782,7 +2828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2802,7 +2848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2822,7 +2868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2848,7 +2894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2856,7 +2902,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2892,9 +2938,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2925,7 +2971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2942,7 +2988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2956,37 +3002,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3009,13 +3055,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3055,7 +3101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3066,70 +3112,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3149,9 +3195,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +3214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3201,12 +3247,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3229,7 +3275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3249,7 +3295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
   <si>
     <t>Preis</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>Sandisk 16GB</t>
+  </si>
+  <si>
+    <t>Jumper Kabel</t>
+  </si>
+  <si>
+    <t>3 sorten</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
   </si>
 </sst>
 </file>
@@ -1011,23 +1020,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1061,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1819,7 +1828,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>167</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>169</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>171</v>
       </c>
@@ -1885,6 +1894,37 @@
       </c>
       <c r="H41" s="13">
         <v>43113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="6">
+        <v>7</v>
+      </c>
+      <c r="H42" s="13">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8</v>
+      </c>
+      <c r="H43" s="13">
+        <v>43118</v>
       </c>
     </row>
   </sheetData>
@@ -1922,13 +1962,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -1975,14 +2015,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -1990,7 +2030,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -1998,7 +2038,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2006,7 +2046,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2018,7 +2058,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2039,12 +2079,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2081,7 +2121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2101,7 +2141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2118,7 +2158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2142,9 +2182,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2170,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2197,7 +2237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2231,14 +2271,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2270,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2304,7 +2344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2338,7 +2378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2370,7 +2410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2402,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2434,7 +2474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2468,7 +2508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2499,7 +2539,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2510,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2521,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2532,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2543,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2555,138 +2595,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2714,13 +2754,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2749,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2775,7 +2815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2801,7 +2841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2828,7 +2868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2848,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2868,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2894,7 +2934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2902,7 +2942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2938,9 +2978,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2957,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2988,7 +3028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3002,37 +3042,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3055,13 +3095,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3081,7 +3121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3101,7 +3141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3112,70 +3152,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3195,9 +3235,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3247,12 +3287,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3295,7 +3335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -1023,20 +1023,20 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>167</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>169</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>171</v>
       </c>
@@ -1896,8 +1896,8 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B42" s="15">
@@ -1913,8 +1913,8 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B43" s="15">
@@ -1962,13 +1962,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -2015,14 +2015,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2079,12 +2079,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2182,9 +2182,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2271,14 +2271,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2595,138 +2595,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2754,13 +2754,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2978,9 +2978,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3042,37 +3042,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3095,13 +3095,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3152,70 +3152,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3235,9 +3235,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3287,12 +3287,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="186">
   <si>
     <t>Preis</t>
   </si>
@@ -557,6 +557,36 @@
   </si>
   <si>
     <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>Donau Kupfer Litzen</t>
+  </si>
+  <si>
+    <t>Stecker und Buchsen</t>
+  </si>
+  <si>
+    <t>Aussel 20 Stück</t>
+  </si>
+  <si>
+    <t>Raspberry PI Zero</t>
+  </si>
+  <si>
+    <t>Zero ohne W</t>
+  </si>
+  <si>
+    <t>FunkModul</t>
+  </si>
+  <si>
+    <t>NRF905</t>
+  </si>
+  <si>
+    <t>Lochrasterplatte</t>
+  </si>
+  <si>
+    <t>Druckschalter</t>
+  </si>
+  <si>
+    <t>50 MicroSchalter</t>
   </si>
 </sst>
 </file>
@@ -1020,23 +1050,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1044,8 +1074,8 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D37)</f>
-        <v>373.72999999999996</v>
+        <f>SUM(D4:D49)</f>
+        <v>524.67000000000007</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -1061,7 +1091,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1139,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1164,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1190,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1216,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1207,7 +1237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1230,7 +1260,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1287,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1268,7 +1298,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1313,7 +1343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1327,7 +1357,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1387,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1377,7 +1407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1400,7 +1430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1420,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1437,7 +1467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1460,7 +1490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1480,7 +1510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1503,7 +1533,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1523,7 +1553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1543,7 +1573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1603,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1626,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1616,7 +1646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1633,7 +1663,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1650,7 +1680,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1687,7 +1717,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1707,7 +1737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1726,11 +1756,11 @@
       <c r="H32" s="13">
         <v>43071</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1770,7 +1800,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1787,7 +1817,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1810,7 +1840,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1858,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -1845,7 +1875,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>167</v>
       </c>
@@ -1862,7 +1892,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>169</v>
       </c>
@@ -1879,7 +1909,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>171</v>
       </c>
@@ -1896,7 +1926,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>173</v>
       </c>
@@ -1913,7 +1943,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>175</v>
       </c>
@@ -1925,6 +1955,92 @@
       </c>
       <c r="H43" s="13">
         <v>43118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="15">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="6">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="8">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="15">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="8">
+        <f>B47*7.45</f>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="15">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="8">
+        <f>B48*1.95</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -1949,6 +2065,7 @@
     <hyperlink ref="I33" r:id="rId15"/>
     <hyperlink ref="I34" r:id="rId16"/>
     <hyperlink ref="I35" r:id="rId17"/>
+    <hyperlink ref="I32" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1962,13 +2079,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -2015,14 +2132,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2030,7 +2147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2038,7 +2155,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2046,7 +2163,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2058,7 +2175,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2079,12 +2196,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2121,7 +2238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2141,7 +2258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2158,7 +2275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2182,9 +2299,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2210,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2237,7 +2354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2271,14 +2388,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2310,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2344,7 +2461,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2378,7 +2495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2410,7 +2527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2442,7 +2559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2474,7 +2591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2508,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2539,7 +2656,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2550,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2561,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2572,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2583,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2595,138 +2712,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2754,13 +2871,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2815,7 +2932,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2841,7 +2958,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2868,7 +2985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2888,7 +3005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2908,7 +3025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2934,7 +3051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -2942,7 +3059,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -2978,9 +3095,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +3114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3011,7 +3128,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3028,7 +3145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3042,37 +3159,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3095,13 +3212,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3121,7 +3238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3141,7 +3258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3152,70 +3269,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3235,9 +3352,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3287,12 +3404,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3315,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3335,7 +3452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
   <si>
     <t>Preis</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>50 MicroSchalter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B071CPXGNG/ref=sxbs_sxwds-stvp_2?pf_rd_m=A3JWKAKR8XB7XF&amp;pf_rd_p=1675573487&amp;pd_rd_wg=LRCHr&amp;pf_rd_r=4ZSWHHAQMN874HG0NYB8&amp;pf_rd_s=desktop-sx-bottom-slot&amp;pf_rd_t=301&amp;pd_rd_i=B06Y5Y2LGT&amp;pd_rd_w=GUkNL&amp;pf_rd_i=esc&amp;pd_rd_r=3d0d8458-ecba-4ac7-8b45-7379f31722de&amp;ie=UTF8&amp;qid=1525163745&amp;sr=2&amp;th=1</t>
+  </si>
+  <si>
+    <t>ESCs</t>
+  </si>
+  <si>
+    <t>4* 30A BLHeli-S</t>
   </si>
 </sst>
 </file>
@@ -1050,23 +1059,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1091,7 +1100,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>95</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>121</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>147</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>67</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>146</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1396,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1467,7 +1476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>135</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>109</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>133</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>150</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>148</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>86</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>156</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1780,7 +1789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>159</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1867,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>167</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>169</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>171</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>173</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>175</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>90</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>177</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>179</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>181</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>156</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>184</v>
       </c>
@@ -2041,6 +2050,23 @@
       </c>
       <c r="D49" s="8">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="8">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2079,13 +2105,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -2132,14 +2158,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -2147,7 +2173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2155,7 +2181,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2163,7 +2189,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -2175,7 +2201,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2196,12 +2222,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2238,7 +2264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2258,7 +2284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2275,7 +2301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2299,9 +2325,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2388,14 +2414,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2427,7 +2453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2461,7 +2487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2495,7 +2521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2527,7 +2553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2559,7 +2585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2625,7 +2651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2656,7 +2682,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2667,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2678,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2689,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2700,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2712,138 +2738,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2871,13 +2897,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2906,7 +2932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2932,7 +2958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2958,7 +2984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2985,7 +3011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3005,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3025,7 +3051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3051,7 +3077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>126</v>
       </c>
@@ -3059,7 +3085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>127</v>
       </c>
@@ -3095,9 +3121,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3114,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3128,7 +3154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3145,7 +3171,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3159,37 +3185,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3212,13 +3238,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3238,7 +3264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3258,7 +3284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3269,70 +3295,70 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3352,9 +3378,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3371,7 +3397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3404,12 +3430,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3452,7 +3478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -145,9 +145,6 @@
     <t>Features</t>
   </si>
   <si>
-    <t xml:space="preserve">MPU9255 </t>
-  </si>
-  <si>
     <t>Acc, Gyro, Comp</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>4* 30A BLHeli-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU9250 </t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,14 +1102,14 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2">
         <f>(F1*2)/4</f>
         <v>240.55</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1135,17 +1135,17 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3">
         <f>((G1*11.1)/E1)*60</f>
         <v>4.8597014925373134</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>43032</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="6">
         <f>2.25*B7</f>
@@ -1243,19 +1243,19 @@
         <v>43042</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" t="str">
         <f>Sensoren!B2</f>
-        <v xml:space="preserve">MPU9255 </v>
+        <v xml:space="preserve">MPU9250 </v>
       </c>
       <c r="D8" s="8">
         <f>Sensoren!C2</f>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6">
         <v>3.5</v>
@@ -1349,12 +1349,12 @@
         <v>43043</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="6">
         <v>2.6</v>
@@ -1413,18 +1413,18 @@
         <v>43046</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6">
         <v>5</v>
@@ -1436,18 +1436,18 @@
         <v>43046</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
       </c>
       <c r="D17" s="6">
         <v>5.9</v>
@@ -1456,12 +1456,12 @@
         <v>43046</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="10">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>43046</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6">
         <v>5</v>
@@ -1496,18 +1496,18 @@
         <v>43047</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="6">
         <v>2.2999999999999998</v>
@@ -1516,12 +1516,12 @@
         <v>43047</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10">
         <v>1</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1559,18 +1559,18 @@
         <v>43050</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
@@ -1579,7 +1579,7 @@
         <v>43050</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="6">
         <v>1.35</v>
@@ -1652,18 +1652,18 @@
         <v>43053</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>150</v>
-      </c>
-      <c r="B27" s="15">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>151</v>
       </c>
       <c r="D27" s="6">
         <v>3.33</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
       </c>
       <c r="D28" s="6">
         <v>30</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
       </c>
       <c r="D29" s="6">
         <v>10</v>
@@ -1706,18 +1706,18 @@
         <v>43055</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>149</v>
       </c>
       <c r="D30" s="6">
         <v>15</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="6">
         <v>10.59</v>
@@ -1743,18 +1743,18 @@
         <v>43057</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
-      </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -1766,7 +1766,7 @@
         <v>43071</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" s="6">
         <v>3.89</v>
@@ -1786,18 +1786,18 @@
         <v>43077</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="6">
         <v>11</v>
@@ -1806,12 +1806,12 @@
         <v>43080</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
@@ -1823,18 +1823,18 @@
         <v>43080</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>154</v>
-      </c>
-      <c r="B36" s="15">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
       </c>
       <c r="D36" s="7">
         <v>6.33</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>165</v>
-      </c>
-      <c r="B38" s="15">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
       </c>
       <c r="D38" s="6">
         <v>2.35</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="15">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>168</v>
       </c>
       <c r="D39" s="6">
         <v>38</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>169</v>
-      </c>
-      <c r="B40" s="15">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
       </c>
       <c r="D40" s="6">
         <v>8.1</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
-      </c>
-      <c r="B41" s="15">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>172</v>
       </c>
       <c r="D41" s="6">
         <v>13.5</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>173</v>
-      </c>
-      <c r="B42" s="15">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>174</v>
       </c>
       <c r="D42" s="6">
         <v>7</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="15">
         <v>1</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="15">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="6">
         <v>11.25</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>177</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>178</v>
       </c>
       <c r="D45" s="8">
         <v>6.49</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>179</v>
-      </c>
-      <c r="B46" s="15">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
       </c>
       <c r="D46" s="8">
         <v>36.5</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="15">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="8">
         <f>B47*7.45</f>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="15">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="8">
         <f>B48*1.95</f>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>184</v>
-      </c>
-      <c r="B49" s="15">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>185</v>
       </c>
       <c r="D49" s="8">
         <v>0.95</v>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>187</v>
-      </c>
-      <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>188</v>
       </c>
       <c r="D50" s="8">
         <v>46</v>
       </c>
-      <c r="I50" t="s">
-        <v>186</v>
+      <c r="I50" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2092,6 +2092,7 @@
     <hyperlink ref="I34" r:id="rId16"/>
     <hyperlink ref="I35" r:id="rId17"/>
     <hyperlink ref="I32" r:id="rId18"/>
+    <hyperlink ref="I50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2130,7 +2131,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -2139,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2162,12 +2163,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
         <v>270</v>
@@ -2175,7 +2176,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7">
         <v>82.52</v>
@@ -2183,7 +2184,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="7">
         <v>31.28</v>
@@ -2191,7 +2192,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="7">
         <v>134.16999999999999</v>
@@ -2203,7 +2204,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="7">
         <v>42.17</v>
@@ -2241,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -2258,10 +2259,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2269,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8">
         <v>10.4</v>
@@ -2278,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,10 +2296,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -2358,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <f>(27+8)</f>
@@ -2374,10 +2375,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,16 +2386,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2441,13 +2442,13 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -2458,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4">
         <v>15.7</v>
@@ -2484,7 +2485,7 @@
         <v>12.761020881670534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2492,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -2518,7 +2519,7 @@
         <v>11.702127659574469</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2526,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>36</v>
@@ -2550,7 +2551,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4">
         <v>42</v>
@@ -2648,7 +2649,7 @@
         <v>9.4674556213017755</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2656,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4">
         <v>26.29</v>
@@ -2728,11 +2729,11 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2920,10 +2921,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2937,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1">
         <v>12.5</v>
@@ -2955,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1">
         <v>18</v>
@@ -2981,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -3008,7 +3009,7 @@
         <v>11.842105263157896</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3056,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1">
         <v>15.5</v>
@@ -3074,23 +3075,23 @@
         <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -3145,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3159,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="8">
         <v>10</v>
@@ -3168,7 +3169,7 @@
         <v>2204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="8">
         <v>2.57</v>
@@ -3269,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C2" s="8">
         <v>8</v>
@@ -3278,10 +3279,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>33</v>
@@ -3475,7 +3476,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1885,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="15">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B40" s="15">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B41" s="15">
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="15">
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B43" s="15">
@@ -2092,7 +2092,7 @@
     <hyperlink ref="I34" r:id="rId16"/>
     <hyperlink ref="I35" r:id="rId17"/>
     <hyperlink ref="I32" r:id="rId18"/>
-    <hyperlink ref="I50"/>
+    <hyperlink ref="I50" display="https://www.amazon.de/dp/B071CPXGNG/ref=sxbs_sxwds-stvp_2?pf_rd_m=A3JWKAKR8XB7XF&amp;pf_rd_p=1675573487&amp;pd_rd_wg=LRCHr&amp;pf_rd_r=4ZSWHHAQMN874HG0NYB8&amp;pf_rd_s=desktop-sx-bottom-slot&amp;pf_rd_t=301&amp;pd_rd_i=B06Y5Y2LGT&amp;pd_rd_w=GUkNL&amp;pf_rd_i=esc&amp;pd_rd_r=3d0d8458-ecba-4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3375,7 +3375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="191">
   <si>
     <t>Preis</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t xml:space="preserve">MPU9250 </t>
+  </si>
+  <si>
+    <t>Motoren</t>
+  </si>
+  <si>
+    <t>Ersatz</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +713,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,6 +738,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -1059,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,8 +1096,8 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D49)</f>
-        <v>524.67000000000007</v>
+        <f>SUM(D4:D100)</f>
+        <v>616.66000000000008</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2067,6 +2080,20 @@
       </c>
       <c r="I50" s="5" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="15">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="8">
+        <v>45.99</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
   <si>
     <t>Preis</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Ersatz</t>
+  </si>
+  <si>
+    <t>Carbon 220mm</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +681,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -739,6 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -1072,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1107,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>616.66000000000008</v>
+        <v>645.72</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2094,6 +2104,20 @@
       </c>
       <c r="D51" s="8">
         <v>45.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="15">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="8">
+        <v>29.06</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -1084,21 +1084,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>146</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>145</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>149</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>151</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>147</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>155</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>157</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>158</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>153</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>29</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>164</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>166</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>168</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>170</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>172</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>174</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>89</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>176</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>178</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>180</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>155</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>183</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>186</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>189</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>29</v>
       </c>
@@ -2157,13 +2157,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2210,14 +2210,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2274,12 +2274,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2377,9 +2377,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2466,14 +2466,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -2790,138 +2790,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2945,17 +2945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3173,9 +3173,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3237,37 +3237,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3290,13 +3290,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3347,70 +3347,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3430,9 +3430,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3482,12 +3482,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="193">
   <si>
     <t>Preis</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>Carbon 220mm</t>
+  </si>
+  <si>
+    <t>Kondensatoren</t>
   </si>
 </sst>
 </file>
@@ -1082,11 +1085,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1107,7 +1108,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>645.72</v>
+        <v>655.47</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2118,6 +2119,14 @@
       </c>
       <c r="D52" s="8">
         <v>29.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="8">
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="BMS" sheetId="11" r:id="rId2"/>
-    <sheet name="Kamera" sheetId="9" r:id="rId3"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId4"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId5"/>
-    <sheet name="Propeller" sheetId="10" r:id="rId6"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId7"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId8"/>
-    <sheet name="ESC" sheetId="6" r:id="rId9"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId10"/>
-    <sheet name="Zahlungen" sheetId="12" r:id="rId11"/>
+    <sheet name="Planung" sheetId="13" r:id="rId2"/>
+    <sheet name="BMS" sheetId="11" r:id="rId3"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId4"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId7"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId8"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId9"/>
+    <sheet name="ESC" sheetId="6" r:id="rId10"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId11"/>
+    <sheet name="Zahlungen" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="220">
   <si>
     <t>Preis</t>
   </si>
@@ -608,6 +609,87 @@
   </si>
   <si>
     <t>Kondensatoren</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Schottky</t>
+  </si>
+  <si>
+    <t>Pufferkondensator</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/SR-560-MIC-Schottky-Barrier-Gleichrichter-Diode-5A-60-Volt-DO-201-10-Stuck/181818282811?hash=item2a5536d33b:g:of0AAOSwd0BVufj9</t>
+  </si>
+  <si>
+    <t>Hochstrom</t>
+  </si>
+  <si>
+    <t>Pufferkondensator hochstrom optional</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/IXYS-SEMICONDUCTOR-dssk-80-006b-Diode-Schottky-2x40a-60V/392016098196?hash=item5b45faf394:g:lsIAAOxyyUtSa76W</t>
+  </si>
+  <si>
+    <t>zero w</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Raspberry-Zero-Wireless-Essentials-Kit/dp/B06XCYGP27/ref=sr_1_5?ie=UTF8&amp;qid=1530279846&amp;sr=8-5&amp;keywords=raspberry+pi+zero+w</t>
+  </si>
+  <si>
+    <t>Oder Alter (Entlötwerkzeug)</t>
+  </si>
+  <si>
+    <t>entlötsauger</t>
+  </si>
+  <si>
+    <t>Lamex</t>
+  </si>
+  <si>
+    <t>Alternative Pi</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Lamex-ZD211-Entl%C3%B6tsauger-L%C3%B6tsauger-Entl%C3%B6tpumpe/dp/B00DW7B96W/ref=sr_1_5?ie=UTF8&amp;qid=1530279936&amp;sr=8-5&amp;keywords=entl%C3%B6t</t>
+  </si>
+  <si>
+    <t>A2212</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/iParaAiluRy-1000KV-Brushless-Multicopter-Klingen/dp/B00O7JKCF8/ref=sr_1_8?ie=UTF8&amp;qid=1530280613&amp;sr=8-8&amp;keywords=A2212</t>
+  </si>
+  <si>
+    <t>neue Motoren</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/s/ref=nb_sb_noss_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;url=search-alias%3Daps&amp;field-keywords=1045</t>
+  </si>
+  <si>
+    <t>Stecker</t>
+  </si>
+  <si>
+    <t>Dean Style</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ROSENICE-Ultra-T-Steckverbinder-20Stk-Schrumpfschlauch/dp/B00W79J8KA/ref=sr_1_3?ie=UTF8&amp;qid=1530280909&amp;sr=8-3&amp;keywords=dean+t+stecker</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>aus china</t>
+  </si>
+  <si>
+    <t>http://www.dx.com/p/replacement-pu-quadcopter-frame-airframe-kit-for-450-500-red-beige-multi-color-398346?Utm_rid=78761898&amp;Utm_source=affiliate#.WzY-yiBpyUk</t>
   </si>
 </sst>
 </file>
@@ -658,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,24 +755,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -725,7 +789,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -748,10 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -1087,19 +1147,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1186,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1136,7 +1198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1259,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1249,7 +1311,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1270,7 +1332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1293,7 +1355,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1382,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>146</v>
       </c>
@@ -1331,7 +1393,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1353,7 +1415,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1376,7 +1438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>145</v>
       </c>
@@ -1390,7 +1452,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1482,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1440,7 +1502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1463,7 +1525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1483,7 +1545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1500,7 +1562,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1543,7 +1605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1566,7 +1628,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1586,7 +1648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1606,7 +1668,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1698,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1659,7 +1721,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1679,7 +1741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>149</v>
       </c>
@@ -1696,7 +1758,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>151</v>
       </c>
@@ -1713,7 +1775,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1733,7 +1795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>147</v>
       </c>
@@ -1750,7 +1812,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1770,7 +1832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>155</v>
       </c>
@@ -1793,7 +1855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>157</v>
       </c>
@@ -1833,7 +1895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>158</v>
       </c>
@@ -1850,7 +1912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>153</v>
       </c>
@@ -1873,8 +1935,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="10">
@@ -1891,8 +1953,8 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B38" s="15">
@@ -1908,8 +1970,8 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="15">
@@ -1925,8 +1987,8 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B40" s="15">
@@ -1942,8 +2004,8 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B41" s="15">
@@ -1959,8 +2021,8 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="15">
@@ -1976,8 +2038,8 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B43" s="15">
@@ -1990,8 +2052,8 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="15">
@@ -2004,8 +2066,8 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B45" s="15">
@@ -2018,8 +2080,8 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>178</v>
       </c>
       <c r="B46" s="15">
@@ -2032,8 +2094,8 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B47" s="15">
@@ -2047,8 +2109,8 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B48" s="15">
@@ -2062,8 +2124,8 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="15">
@@ -2076,8 +2138,8 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B50" s="15">
@@ -2093,8 +2155,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B51" s="15">
@@ -2107,8 +2169,8 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="15">
@@ -2121,8 +2183,8 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D53" s="8">
@@ -2160,19 +2222,88 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>5.8</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2211,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2219,14 +2350,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2234,7 +2365,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2242,7 +2373,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2250,7 +2381,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2262,7 +2393,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2277,18 +2408,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="8">
+        <f>SUM(D4:D35)</f>
+        <v>106.03999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="8">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="8">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1045</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="8">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2308,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2325,7 +2715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2345,7 +2735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2362,7 +2752,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2378,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2386,9 +2776,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2441,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2467,7 +2857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -2475,14 +2865,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2548,7 +2938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2582,7 +2972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2614,7 +3004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -2646,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2678,7 +3068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -2712,7 +3102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -2743,7 +3133,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2754,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2765,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2776,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2787,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -2799,138 +3189,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -2950,7 +3340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2958,13 +3348,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2993,7 +3383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3019,7 +3409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3045,7 +3435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3072,7 +3462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3092,7 +3482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3112,7 +3502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3138,7 +3528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3146,7 +3536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3174,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3182,9 +3572,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3201,7 +3591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3215,7 +3605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3232,7 +3622,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3246,37 +3636,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3291,7 +3681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3299,13 +3689,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3325,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3345,7 +3735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3356,70 +3746,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3431,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3439,9 +3829,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3458,7 +3848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3481,73 +3871,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>5.8</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="224">
   <si>
     <t>Preis</t>
   </si>
@@ -690,6 +690,18 @@
   </si>
   <si>
     <t>http://www.dx.com/p/replacement-pu-quadcopter-frame-airframe-kit-for-450-500-red-beige-multi-color-398346?Utm_rid=78761898&amp;Utm_source=affiliate#.WzY-yiBpyUk</t>
+  </si>
+  <si>
+    <t>Flight Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHI Pro Racing F3 </t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-7&amp;keywords=CC3Dhttps://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-7&amp;keywords=CC3D</t>
   </si>
 </sst>
 </file>
@@ -789,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -811,6 +823,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1151,17 +1166,17 @@
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1201,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>146</v>
       </c>
@@ -1393,7 +1408,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1438,7 +1453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>145</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1605,7 +1620,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1628,7 +1643,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1668,7 +1683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1713,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>149</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>151</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1795,7 +1810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>147</v>
       </c>
@@ -1812,7 +1827,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>155</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>157</v>
       </c>
@@ -1895,7 +1910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>158</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>153</v>
       </c>
@@ -1935,7 +1950,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -1953,7 +1968,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>164</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>166</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>168</v>
       </c>
@@ -2004,7 +2019,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>170</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>172</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>174</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
@@ -2066,7 +2081,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>176</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>178</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>180</v>
       </c>
@@ -2109,7 +2124,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>155</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>183</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>186</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>189</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>192</v>
       </c>
@@ -2228,12 +2243,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2276,7 +2291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2297,13 +2312,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2350,14 +2365,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -2373,7 +2388,7 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>290.14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2411,22 +2426,22 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D2" s="8">
         <f>SUM(D4:D35)</f>
-        <v>106.03999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>145.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -2486,7 +2501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -2506,7 +2521,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -2546,7 +2561,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2606,61 +2621,81 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="8">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2673,12 +2708,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2715,7 +2750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2735,7 +2770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2752,7 +2787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2776,9 +2811,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2804,7 +2839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2831,7 +2866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2865,14 +2900,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2938,7 +2973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2972,7 +3007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3004,7 +3039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3036,7 +3071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3068,7 +3103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3102,7 +3137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3144,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3155,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3166,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3177,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -3189,138 +3224,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -3348,13 +3383,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3435,7 +3470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3462,7 +3497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3482,7 +3517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3502,7 +3537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3528,7 +3563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3572,9 +3607,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3591,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3605,7 +3640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3622,7 +3657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3636,37 +3671,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3689,13 +3724,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3715,7 +3750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3735,7 +3770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3746,70 +3781,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3829,9 +3864,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
   <si>
     <t>Preis</t>
   </si>
@@ -455,15 +455,6 @@
     <t>Zahlungen</t>
   </si>
   <si>
-    <t>Tim-&gt;iris</t>
-  </si>
-  <si>
-    <t>Iris-&gt;Paypal</t>
-  </si>
-  <si>
-    <t>Iris-&gt;Amazon</t>
-  </si>
-  <si>
     <t>(Vorauss.) Ankunft</t>
   </si>
   <si>
@@ -702,6 +693,15 @@
   </si>
   <si>
     <t>https://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-7&amp;keywords=CC3Dhttps://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-7&amp;keywords=CC3D</t>
+  </si>
+  <si>
+    <t>Förderverein:</t>
+  </si>
+  <si>
+    <t>Zahlung 1</t>
+  </si>
+  <si>
+    <t>Zuschuss</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -827,6 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
@@ -1162,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B39" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -1236,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
         <v>46</v>
@@ -1399,7 +1400,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
@@ -1455,7 +1456,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1758,13 +1759,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D27" s="6">
         <v>3.33</v>
@@ -1775,13 +1776,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="15">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D28" s="6">
         <v>30</v>
@@ -1812,13 +1813,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D30" s="6">
         <v>15</v>
@@ -1849,13 +1850,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B32" s="15">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -1867,7 +1868,7 @@
         <v>43071</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1878,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D33" s="6">
         <v>3.89</v>
@@ -1887,12 +1888,12 @@
         <v>43077</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B34" s="15">
         <v>1</v>
@@ -1907,12 +1908,12 @@
         <v>43080</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" s="15">
         <v>1</v>
@@ -1924,18 +1925,18 @@
         <v>43080</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B36" s="15">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D36" s="7">
         <v>6.33</v>
@@ -1970,13 +1971,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B38" s="15">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6">
         <v>2.35</v>
@@ -1987,13 +1988,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" s="15">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="6">
         <v>38</v>
@@ -2004,13 +2005,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B40" s="15">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6">
         <v>8.1</v>
@@ -2021,13 +2022,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D41" s="6">
         <v>13.5</v>
@@ -2038,13 +2039,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B42" s="15">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D42" s="6">
         <v>7</v>
@@ -2055,7 +2056,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B43" s="15">
         <v>1</v>
@@ -2075,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D44" s="6">
         <v>11.25</v>
@@ -2083,13 +2084,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B45" s="15">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D45" s="8">
         <v>6.49</v>
@@ -2097,13 +2098,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B46" s="15">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D46" s="8">
         <v>36.5</v>
@@ -2111,13 +2112,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B47" s="15">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D47" s="8">
         <f>B47*7.45</f>
@@ -2126,13 +2127,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B48" s="15">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="8">
         <f>B48*1.95</f>
@@ -2141,13 +2142,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B49" s="15">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D49" s="8">
         <v>0.95</v>
@@ -2155,30 +2156,30 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" s="15">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D50" s="8">
         <v>46</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B51" s="15">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D51" s="8">
         <v>45.99</v>
@@ -2192,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D52" s="8">
         <v>29.06</v>
@@ -2200,7 +2201,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D53" s="8">
         <v>9.75</v>
@@ -2361,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,50 +2372,39 @@
       <c r="A1" t="s">
         <v>140</v>
       </c>
+      <c r="B1" s="17">
+        <f>SUM(B2:B20)</f>
+        <v>747.84</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="1">
-        <v>270</v>
+        <v>221</v>
+      </c>
+      <c r="B2" s="8">
+        <v>597.84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="7">
-        <v>82.52</v>
+      <c r="B3" s="8">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="7">
-        <v>31.28</v>
-      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="7">
-        <v>134.16999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(B3:B6)</f>
-        <v>290.14</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42.17</v>
-      </c>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2425,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2455,110 +2445,110 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="8">
         <v>3.25</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8">
         <v>5.79</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" s="8">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" s="8">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D8" s="8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,18 +2568,18 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="8">
         <v>7</v>
@@ -2598,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2609,36 +2599,36 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="8">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="8">
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2694,7 +2684,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12"/>
+    <hyperlink ref="F12" display="https://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-7&amp;keywords=CC3Dhttps://www.amazon.de/LHI-Controller-Cleaflight-Compass-Quadcopter/dp/B01D8EK1YY/ref=sr_1_7?ie=UTF8&amp;qid=1530362973&amp;sr=8-"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3755,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" s="8">
         <v>8</v>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
   <si>
     <t>Preis</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>Zuschuss</t>
+  </si>
+  <si>
+    <t>Dioden</t>
+  </si>
+  <si>
+    <t>5,5 Ah</t>
+  </si>
+  <si>
+    <t>40V</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1195,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>655.47</v>
+        <v>791.73</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2203,8 +2212,120 @@
       <c r="A53" s="14" t="s">
         <v>189</v>
       </c>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
       <c r="D53" s="8">
         <v>9.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="15">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="15">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="8">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="15">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="15">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="8">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="15">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="8">
+        <v>5.79</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="229">
   <si>
     <t>Preis</t>
   </si>
@@ -711,6 +711,12 @@
   </si>
   <si>
     <t>40V</t>
+  </si>
+  <si>
+    <t>O-Ringe</t>
+  </si>
+  <si>
+    <t>Vibrationsdämpfung</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1201,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>791.73</v>
+        <v>801.28</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2326,6 +2332,20 @@
       </c>
       <c r="D61" s="8">
         <v>5.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="8">
+        <v>9.5500000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
   <si>
     <t>Preis</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>Vibrationsdämpfung</t>
+  </si>
+  <si>
+    <t>Schutzhandschu</t>
   </si>
 </sst>
 </file>
@@ -1176,23 +1179,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>801.28</v>
+        <v>810.28</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>142</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>146</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>148</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>144</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>152</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>154</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>155</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>150</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +1987,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>161</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>163</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>171</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>173</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>175</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>177</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>180</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>183</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>186</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>189</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>224</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>203</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>186</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>30</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>211</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>3</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>32.229999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>224</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>227</v>
       </c>
@@ -2346,6 +2349,17 @@
       </c>
       <c r="D62" s="8">
         <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2385,12 +2399,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2454,13 +2468,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2507,9 +2521,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>747.84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -2529,7 +2543,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>150</v>
       </c>
@@ -2537,14 +2551,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
     </row>
   </sheetData>
@@ -2560,19 +2574,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="8">
         <f>SUM(D4:D35)</f>
         <v>145.04</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2606,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2652,7 +2666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2672,7 +2686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2692,7 +2706,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2712,7 +2726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -2732,7 +2746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -2772,55 +2786,55 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
   </sheetData>
@@ -2839,12 +2853,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2864,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2901,7 +2915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2918,7 +2932,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2942,9 +2956,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2997,7 +3011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -3031,14 +3045,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3104,7 +3118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3234,7 +3248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3268,7 +3282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3310,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3321,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3332,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3343,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -3355,138 +3369,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -3514,13 +3528,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3549,7 +3563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3601,7 +3615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3628,7 +3642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3648,7 +3662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3668,7 +3682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3702,7 +3716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3738,9 +3752,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3771,7 +3785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3788,7 +3802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3802,37 +3816,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3855,13 +3869,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3881,7 +3895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3901,7 +3915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3912,70 +3926,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3995,9 +4009,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4014,7 +4028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
-    <sheet name="Planung" sheetId="13" r:id="rId2"/>
-    <sheet name="BMS" sheetId="11" r:id="rId3"/>
-    <sheet name="Kamera" sheetId="9" r:id="rId4"/>
-    <sheet name="Batterien" sheetId="4" r:id="rId5"/>
-    <sheet name="Motoren" sheetId="2" r:id="rId6"/>
-    <sheet name="Propeller" sheetId="10" r:id="rId7"/>
-    <sheet name="Sensoren" sheetId="8" r:id="rId8"/>
-    <sheet name="Höhe" sheetId="7" r:id="rId9"/>
-    <sheet name="ESC" sheetId="6" r:id="rId10"/>
-    <sheet name="SD-Karte" sheetId="5" r:id="rId11"/>
-    <sheet name="Zahlungen" sheetId="12" r:id="rId12"/>
+    <sheet name="YMFC AL Upgrade" sheetId="14" r:id="rId2"/>
+    <sheet name="Planung" sheetId="13" r:id="rId3"/>
+    <sheet name="BMS" sheetId="11" r:id="rId4"/>
+    <sheet name="Kamera" sheetId="9" r:id="rId5"/>
+    <sheet name="Batterien" sheetId="4" r:id="rId6"/>
+    <sheet name="Motoren" sheetId="2" r:id="rId7"/>
+    <sheet name="Propeller" sheetId="10" r:id="rId8"/>
+    <sheet name="Sensoren" sheetId="8" r:id="rId9"/>
+    <sheet name="Höhe" sheetId="7" r:id="rId10"/>
+    <sheet name="ESC" sheetId="6" r:id="rId11"/>
+    <sheet name="SD-Karte" sheetId="5" r:id="rId12"/>
+    <sheet name="Zahlungen" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="239">
   <si>
     <t>Preis</t>
   </si>
@@ -720,6 +721,33 @@
   </si>
   <si>
     <t>Schutzhandschu</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>STM32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/WINGONEER-Entwicklungsplattform-Minimum-STM32F103C8T6-Learning/dp/B06XHFVHPW/ref=sr_1_4?ie=UTF8&amp;qid=1533284640&amp;sr=8-4&amp;keywords=Stm32</t>
+  </si>
+  <si>
+    <t>ÜbungsQuad</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/SANMERSEN-Quadrocopter-Quadrokopter-Quadcopter-Fernbedienung/dp/B077D67R4H/ref=sr_1_1?ie=UTF8&amp;qid=1533284804&amp;sr=8-1&amp;keywords=JJRC+H36+2.4GHz+4CH+6+Axis+Gyro+RC+Quadcopter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Ils-MS5611-GY-63-Atmosph%C3%A4rendruck-Sensormodul-Kommunikation/dp/B07912BBJG/ref=sr_1_3?s=ce-de&amp;ie=UTF8&amp;qid=1533285793&amp;sr=1-3&amp;keywords=ms5611</t>
+  </si>
+  <si>
+    <t>STM 32</t>
+  </si>
+  <si>
+    <t>Übungsdrohne</t>
+  </si>
+  <si>
+    <t>MPU 6050</t>
   </si>
 </sst>
 </file>
@@ -1179,23 +1207,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1232,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>810.28</v>
+        <v>872.19</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -1220,7 +1248,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1232,7 +1260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1345,7 +1373,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1366,7 +1394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1389,7 +1417,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1444,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -1427,7 +1455,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1477,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1472,7 +1500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>142</v>
       </c>
@@ -1486,7 +1514,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1536,7 +1564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1559,7 +1587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1579,7 +1607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1596,7 +1624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1619,7 +1647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1639,7 +1667,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1662,7 +1690,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1682,7 +1710,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1702,7 +1730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1732,7 +1760,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1783,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1775,7 +1803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>146</v>
       </c>
@@ -1792,7 +1820,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>148</v>
       </c>
@@ -1809,7 +1837,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1829,7 +1857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>144</v>
       </c>
@@ -1846,7 +1874,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1866,7 +1894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>152</v>
       </c>
@@ -1889,7 +1917,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1937,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>154</v>
       </c>
@@ -1929,7 +1957,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>155</v>
       </c>
@@ -1946,7 +1974,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>150</v>
       </c>
@@ -1969,7 +1997,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +2015,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>161</v>
       </c>
@@ -2004,7 +2032,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>163</v>
       </c>
@@ -2021,7 +2049,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2038,7 +2066,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
@@ -2055,7 +2083,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
@@ -2072,7 +2100,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>171</v>
       </c>
@@ -2086,7 +2114,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
@@ -2100,7 +2128,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>173</v>
       </c>
@@ -2114,7 +2142,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>175</v>
       </c>
@@ -2128,7 +2156,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>177</v>
       </c>
@@ -2143,7 +2171,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
@@ -2158,7 +2186,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>180</v>
       </c>
@@ -2172,7 +2200,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>183</v>
       </c>
@@ -2189,7 +2217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>186</v>
       </c>
@@ -2203,7 +2231,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2245,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>189</v>
       </c>
@@ -2228,7 +2256,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>224</v>
       </c>
@@ -2239,7 +2267,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>203</v>
       </c>
@@ -2253,7 +2281,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>186</v>
       </c>
@@ -2270,7 +2298,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>30</v>
       </c>
@@ -2284,7 +2312,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>211</v>
       </c>
@@ -2298,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2340,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>29</v>
       </c>
@@ -2323,7 +2351,7 @@
         <v>32.229999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>224</v>
       </c>
@@ -2337,7 +2365,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>227</v>
       </c>
@@ -2351,7 +2379,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>229</v>
       </c>
@@ -2359,7 +2387,51 @@
         <v>1</v>
       </c>
       <c r="D63" s="8">
-        <v>9</v>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>26.59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>6.99</v>
       </c>
     </row>
   </sheetData>
@@ -2393,18 +2465,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2427,7 +2551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2447,7 +2571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2460,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2468,13 +2592,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2491,7 +2615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2513,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2521,9 +2645,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2532,7 +2656,7 @@
         <v>747.84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -2543,7 +2667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>150</v>
       </c>
@@ -2551,14 +2675,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
     </row>
   </sheetData>
@@ -2568,25 +2692,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D2" s="8">
         <f>SUM(D4:D35)</f>
         <v>145.04</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -2626,7 +2814,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2646,7 +2834,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2666,7 +2854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2686,7 +2874,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2706,7 +2894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2726,7 +2914,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -2746,7 +2934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2766,7 +2954,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -2786,55 +2974,55 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
   </sheetData>
@@ -2845,7 +3033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2853,12 +3041,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2878,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2895,7 +3083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2915,7 +3103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2932,7 +3120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -2948,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2956,9 +3144,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2984,7 +3172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3011,7 +3199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -3037,7 +3225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -3045,14 +3233,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3084,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3118,7 +3306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3152,7 +3340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3184,7 +3372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3216,7 +3404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3248,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3282,7 +3470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -3313,7 +3501,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3324,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3335,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3346,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3357,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -3369,138 +3557,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -3520,7 +3708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3528,13 +3716,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3563,7 +3751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3589,7 +3777,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3615,7 +3803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3642,7 +3830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3662,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3682,7 +3870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3708,7 +3896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3716,7 +3904,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3744,7 +3932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3752,9 +3940,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3771,7 +3959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3785,7 +3973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3802,7 +3990,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3816,37 +4004,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -3861,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3869,13 +4057,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3895,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3915,7 +4103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -3926,70 +4114,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
     </row>
   </sheetData>
@@ -3999,56 +4187,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
   <si>
     <t>Preis</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>MPU 6050</t>
+  </si>
+  <si>
+    <t>FTDI-Breakout</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D100)</f>
-        <v>872.19</v>
+        <v>880.13000000000011</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -2432,6 +2435,17 @@
       </c>
       <c r="D67" s="8">
         <v>6.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>7.94</v>
       </c>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Drohne" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
   <si>
     <t>Preis</t>
   </si>
@@ -751,6 +751,24 @@
   </si>
   <si>
     <t>FTDI-Breakout</t>
+  </si>
+  <si>
+    <t>Ersatzmotor</t>
+  </si>
+  <si>
+    <t>Ersatz 6050</t>
+  </si>
+  <si>
+    <t>Raspi zero w</t>
+  </si>
+  <si>
+    <t>Schalter</t>
+  </si>
+  <si>
+    <t>Ersatzpropeller</t>
+  </si>
+  <si>
+    <t>Akku</t>
   </si>
 </sst>
 </file>
@@ -1210,23 +1228,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1234,8 +1252,8 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>SUM(D4:D100)</f>
-        <v>880.13000000000011</v>
+        <f>SUM(D4:D200)</f>
+        <v>996.80000000000018</v>
       </c>
       <c r="E1" s="2">
         <f>SUM(E4:E37)</f>
@@ -1251,7 +1269,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>94</v>
       </c>
@@ -1263,7 +1281,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
@@ -1397,7 +1415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -1420,7 +1438,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>143</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -1503,7 +1521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>142</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>43043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>62</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>65</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>72</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>117</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>134</v>
       </c>
@@ -1670,7 +1688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>43050</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>102</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>132</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>107</v>
       </c>
@@ -1806,7 +1824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>146</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>148</v>
       </c>
@@ -1840,7 +1858,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>144</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>85</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>152</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>154</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>155</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>150</v>
       </c>
@@ -2000,7 +2018,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -2018,7 +2036,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>161</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>163</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>43113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
@@ -2103,7 +2121,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>171</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>173</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>175</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>177</v>
       </c>
@@ -2174,7 +2192,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>180</v>
       </c>
@@ -2203,7 +2221,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>183</v>
       </c>
@@ -2220,7 +2238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>186</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>189</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>224</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>203</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>186</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>30</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>211</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>29</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>32.229999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>224</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>227</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>229</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>236</v>
       </c>
@@ -2404,7 +2422,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>237</v>
       </c>
@@ -2415,7 +2433,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>35</v>
       </c>
@@ -2426,7 +2444,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>238</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>239</v>
       </c>
@@ -2447,6 +2465,153 @@
       <c r="D68" s="8">
         <v>7.94</v>
       </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="15">
+        <v>2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>23.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" s="15">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="15">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="15">
+        <v>2</v>
+      </c>
+      <c r="D73" s="8">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A5:I37">
@@ -2485,9 +2650,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2537,12 +2702,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2585,7 +2750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2606,13 +2771,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2629,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -2659,9 +2824,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -2670,7 +2835,7 @@
         <v>747.84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -2681,7 +2846,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>150</v>
       </c>
@@ -2689,14 +2854,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
     </row>
   </sheetData>
@@ -2712,9 +2877,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -2725,7 +2890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -2736,7 +2901,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -2747,7 +2912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2776,19 +2941,19 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="8">
         <f>SUM(D4:D35)</f>
         <v>145.04</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2808,7 +2973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -2828,7 +2993,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2848,7 +3013,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2868,7 +3033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2888,7 +3053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2908,7 +3073,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2928,7 +3093,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -2948,7 +3113,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2968,7 +3133,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -2988,55 +3153,55 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
   </sheetData>
@@ -3055,12 +3220,12 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3097,7 +3262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3117,7 +3282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3134,7 +3299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
   </sheetData>
@@ -3158,9 +3323,9 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3213,7 +3378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -3247,14 +3412,14 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3320,7 +3485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3354,7 +3519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3386,7 +3551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3418,7 +3583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3450,7 +3615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3484,7 +3649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -3515,7 +3680,7 @@
         <v>10.83916083916084</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3526,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3537,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3548,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3559,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -3571,138 +3736,138 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
   </sheetData>
@@ -3730,13 +3895,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3765,7 +3930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3791,7 +3956,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -3817,7 +3982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -3844,7 +4009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -3864,7 +4029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -3884,7 +4049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -3910,7 +4075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>125</v>
       </c>
@@ -3918,7 +4083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>126</v>
       </c>
@@ -3954,9 +4119,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3973,7 +4138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -3987,7 +4152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -4004,7 +4169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -4018,37 +4183,37 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
   </sheetData>
@@ -4071,13 +4236,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4097,7 +4262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -4117,7 +4282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>3</v>
       </c>
@@ -4128,70 +4293,70 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
     </row>
   </sheetData>

--- a/Teile.xlsx
+++ b/Teile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="247">
   <si>
     <t>Preis</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>Akku</t>
+  </si>
+  <si>
+    <t>Endstand (Ungefähr)</t>
   </si>
 </sst>
 </file>
@@ -1231,14 +1234,14 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
@@ -1250,6 +1253,9 @@
       </c>
       <c r="B1">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
       </c>
       <c r="D1" s="1">
         <f>SUM(D4:D200)</f>
